--- a/documents/final report/trust.xlsx
+++ b/documents/final report/trust.xlsx
@@ -61,8 +61,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -95,23 +123,20 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1680" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Latin Modern Math" panose="02000503000000000000" pitchFamily="50" charset="0"/>
-                <a:ea typeface="Latin Modern Math" panose="02000503000000000000" pitchFamily="50" charset="0"/>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400">
-                <a:latin typeface="LM Roman 12" panose="00000500000000000000" pitchFamily="50" charset="0"/>
-                <a:ea typeface="Latin Modern Math" panose="02000503000000000000" pitchFamily="50" charset="0"/>
-              </a:rPr>
+              <a:rPr lang="en-US"/>
               <a:t>Trust Decay (0.99)</a:t>
             </a:r>
           </a:p>
@@ -130,15 +155,15 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+            <a:defRPr sz="1680" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Latin Modern Math" panose="02000503000000000000" pitchFamily="50" charset="0"/>
-              <a:ea typeface="Latin Modern Math" panose="02000503000000000000" pitchFamily="50" charset="0"/>
+              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
@@ -8041,6 +8066,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -8063,7 +8143,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -8105,6 +8185,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Trust</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -8127,7 +8262,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -8169,14 +8304,14 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="LM Roman 12" panose="00000500000000000000" pitchFamily="50" charset="0"/>
+              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
               <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -8209,7 +8344,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr>
+        <a:defRPr sz="1400">
           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
           <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
         </a:defRPr>
@@ -8784,7 +8919,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="177" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8795,7 +8930,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9298983" cy="6080932"/>
+    <xdr:ext cx="9298983" cy="6075551"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -9160,7 +9295,7 @@
         <v>510</v>
       </c>
       <c r="D2">
-        <f>IF(MOD(A1,10),_xlfn.FLOOR.MATH(D1*0.99),D1+10)</f>
+        <f t="shared" ref="D2:D65" si="0">IF(MOD(A1,10),_xlfn.FLOOR.MATH(D1*0.99),D1+10)</f>
         <v>495</v>
       </c>
       <c r="E2">
@@ -9169,19 +9304,19 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f t="shared" ref="A3:A66" si="0">A2 + 1</f>
+        <f t="shared" ref="A3:A66" si="1">A2 + 1</f>
         <v>3</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B66" si="1">_xlfn.FLOOR.MATH(B2*0.99)</f>
+        <f t="shared" ref="B3:B66" si="2">_xlfn.FLOOR.MATH(B2*0.99)</f>
         <v>490</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C66" si="2">IF(MOD(A2,1),_xlfn.FLOOR.MATH(C2*0.99),C2+10)</f>
+        <f t="shared" ref="C3:C66" si="3">IF(MOD(A2,1),_xlfn.FLOOR.MATH(C2*0.99),C2+10)</f>
         <v>520</v>
       </c>
       <c r="D3">
-        <f>IF(MOD(A2,10),_xlfn.FLOOR.MATH(D2*0.99),D2+10)</f>
+        <f t="shared" si="0"/>
         <v>490</v>
       </c>
       <c r="E3">
@@ -9190,19 +9325,19 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="2"/>
+        <v>485</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="3"/>
+        <v>530</v>
+      </c>
+      <c r="D4">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <f t="shared" si="1"/>
-        <v>485</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="2"/>
-        <v>530</v>
-      </c>
-      <c r="D4">
-        <f>IF(MOD(A3,10),_xlfn.FLOOR.MATH(D3*0.99),D3+10)</f>
         <v>485</v>
       </c>
       <c r="E4">
@@ -9211,19 +9346,19 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="2"/>
+        <v>480</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="3"/>
+        <v>540</v>
+      </c>
+      <c r="D5">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <f t="shared" si="1"/>
-        <v>480</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="2"/>
-        <v>540</v>
-      </c>
-      <c r="D5">
-        <f>IF(MOD(A4,10),_xlfn.FLOOR.MATH(D4*0.99),D4+10)</f>
         <v>480</v>
       </c>
       <c r="E5">
@@ -9232,19 +9367,19 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="2"/>
+        <v>475</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="3"/>
+        <v>550</v>
+      </c>
+      <c r="D6">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <f t="shared" si="1"/>
-        <v>475</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="2"/>
-        <v>550</v>
-      </c>
-      <c r="D6">
-        <f>IF(MOD(A5,10),_xlfn.FLOOR.MATH(D5*0.99),D5+10)</f>
         <v>475</v>
       </c>
       <c r="E6">
@@ -9253,19 +9388,19 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="2"/>
+        <v>470</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="3"/>
+        <v>560</v>
+      </c>
+      <c r="D7">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="1"/>
-        <v>470</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="2"/>
-        <v>560</v>
-      </c>
-      <c r="D7">
-        <f>IF(MOD(A6,10),_xlfn.FLOOR.MATH(D6*0.99),D6+10)</f>
         <v>470</v>
       </c>
       <c r="E7">
@@ -9274,19 +9409,19 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="2"/>
+        <v>465</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="3"/>
+        <v>570</v>
+      </c>
+      <c r="D8">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="1"/>
-        <v>465</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="2"/>
-        <v>570</v>
-      </c>
-      <c r="D8">
-        <f>IF(MOD(A7,10),_xlfn.FLOOR.MATH(D7*0.99),D7+10)</f>
         <v>465</v>
       </c>
       <c r="E8">
@@ -9295,19 +9430,19 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="2"/>
+        <v>460</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="3"/>
+        <v>580</v>
+      </c>
+      <c r="D9">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="1"/>
-        <v>460</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="2"/>
-        <v>580</v>
-      </c>
-      <c r="D9">
-        <f>IF(MOD(A8,10),_xlfn.FLOOR.MATH(D8*0.99),D8+10)</f>
         <v>460</v>
       </c>
       <c r="E9">
@@ -9316,19 +9451,19 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="2"/>
+        <v>455</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="3"/>
+        <v>590</v>
+      </c>
+      <c r="D10">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="1"/>
-        <v>455</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="2"/>
-        <v>590</v>
-      </c>
-      <c r="D10">
-        <f>IF(MOD(A9,10),_xlfn.FLOOR.MATH(D9*0.99),D9+10)</f>
         <v>455</v>
       </c>
       <c r="E10">
@@ -9337,19 +9472,19 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="2"/>
+        <v>450</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="D11">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <f t="shared" si="1"/>
-        <v>450</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="2"/>
-        <v>600</v>
-      </c>
-      <c r="D11">
-        <f>IF(MOD(A10,10),_xlfn.FLOOR.MATH(D10*0.99),D10+10)</f>
         <v>465</v>
       </c>
       <c r="E11">
@@ -9358,19 +9493,19 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="2"/>
+        <v>445</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="3"/>
+        <v>610</v>
+      </c>
+      <c r="D12">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="1"/>
-        <v>445</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="2"/>
-        <v>610</v>
-      </c>
-      <c r="D12">
-        <f>IF(MOD(A11,10),_xlfn.FLOOR.MATH(D11*0.99),D11+10)</f>
         <v>460</v>
       </c>
       <c r="E12">
@@ -9379,19 +9514,19 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="2"/>
+        <v>440</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="3"/>
+        <v>620</v>
+      </c>
+      <c r="D13">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="1"/>
-        <v>440</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="2"/>
-        <v>620</v>
-      </c>
-      <c r="D13">
-        <f>IF(MOD(A12,10),_xlfn.FLOOR.MATH(D12*0.99),D12+10)</f>
         <v>455</v>
       </c>
       <c r="E13">
@@ -9400,19 +9535,19 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="2"/>
+        <v>435</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="3"/>
+        <v>630</v>
+      </c>
+      <c r="D14">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="1"/>
-        <v>435</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="2"/>
-        <v>630</v>
-      </c>
-      <c r="D14">
-        <f>IF(MOD(A13,10),_xlfn.FLOOR.MATH(D13*0.99),D13+10)</f>
         <v>450</v>
       </c>
       <c r="E14">
@@ -9421,19 +9556,19 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="2"/>
+        <v>430</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="3"/>
+        <v>640</v>
+      </c>
+      <c r="D15">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="1"/>
-        <v>430</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="2"/>
-        <v>640</v>
-      </c>
-      <c r="D15">
-        <f>IF(MOD(A14,10),_xlfn.FLOOR.MATH(D14*0.99),D14+10)</f>
         <v>445</v>
       </c>
       <c r="E15">
@@ -9442,19 +9577,19 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="2"/>
+        <v>425</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="3"/>
+        <v>650</v>
+      </c>
+      <c r="D16">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="1"/>
-        <v>425</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="2"/>
-        <v>650</v>
-      </c>
-      <c r="D16">
-        <f>IF(MOD(A15,10),_xlfn.FLOOR.MATH(D15*0.99),D15+10)</f>
         <v>440</v>
       </c>
       <c r="E16">
@@ -9463,19 +9598,19 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="2"/>
+        <v>420</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="3"/>
+        <v>660</v>
+      </c>
+      <c r="D17">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="1"/>
-        <v>420</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="2"/>
-        <v>660</v>
-      </c>
-      <c r="D17">
-        <f>IF(MOD(A16,10),_xlfn.FLOOR.MATH(D16*0.99),D16+10)</f>
         <v>435</v>
       </c>
       <c r="E17">
@@ -9484,19 +9619,19 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="2"/>
+        <v>415</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="3"/>
+        <v>670</v>
+      </c>
+      <c r="D18">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="1"/>
-        <v>415</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="2"/>
-        <v>670</v>
-      </c>
-      <c r="D18">
-        <f>IF(MOD(A17,10),_xlfn.FLOOR.MATH(D17*0.99),D17+10)</f>
         <v>430</v>
       </c>
       <c r="E18">
@@ -9505,19 +9640,19 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="2"/>
+        <v>410</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="3"/>
+        <v>680</v>
+      </c>
+      <c r="D19">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="1"/>
-        <v>410</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="2"/>
-        <v>680</v>
-      </c>
-      <c r="D19">
-        <f>IF(MOD(A18,10),_xlfn.FLOOR.MATH(D18*0.99),D18+10)</f>
         <v>425</v>
       </c>
       <c r="E19">
@@ -9526,19 +9661,19 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="2"/>
+        <v>405</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="3"/>
+        <v>690</v>
+      </c>
+      <c r="D20">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="1"/>
-        <v>405</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="2"/>
-        <v>690</v>
-      </c>
-      <c r="D20">
-        <f>IF(MOD(A19,10),_xlfn.FLOOR.MATH(D19*0.99),D19+10)</f>
         <v>420</v>
       </c>
       <c r="E20">
@@ -9547,19 +9682,19 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="3"/>
+        <v>700</v>
+      </c>
+      <c r="D21">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B21">
-        <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="2"/>
-        <v>700</v>
-      </c>
-      <c r="D21">
-        <f>IF(MOD(A20,10),_xlfn.FLOOR.MATH(D20*0.99),D20+10)</f>
         <v>430</v>
       </c>
       <c r="E21">
@@ -9568,19 +9703,19 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="2"/>
+        <v>396</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="3"/>
+        <v>710</v>
+      </c>
+      <c r="D22">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B22">
-        <f t="shared" si="1"/>
-        <v>396</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="2"/>
-        <v>710</v>
-      </c>
-      <c r="D22">
-        <f>IF(MOD(A21,10),_xlfn.FLOOR.MATH(D21*0.99),D21+10)</f>
         <v>425</v>
       </c>
       <c r="E22">
@@ -9589,19 +9724,19 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="2"/>
+        <v>392</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="3"/>
+        <v>720</v>
+      </c>
+      <c r="D23">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B23">
-        <f t="shared" si="1"/>
-        <v>392</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="2"/>
-        <v>720</v>
-      </c>
-      <c r="D23">
-        <f>IF(MOD(A22,10),_xlfn.FLOOR.MATH(D22*0.99),D22+10)</f>
         <v>420</v>
       </c>
       <c r="E23">
@@ -9610,19 +9745,19 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="2"/>
+        <v>388</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="3"/>
+        <v>730</v>
+      </c>
+      <c r="D24">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B24">
-        <f t="shared" si="1"/>
-        <v>388</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="2"/>
-        <v>730</v>
-      </c>
-      <c r="D24">
-        <f>IF(MOD(A23,10),_xlfn.FLOOR.MATH(D23*0.99),D23+10)</f>
         <v>415</v>
       </c>
       <c r="E24">
@@ -9631,19 +9766,19 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="2"/>
+        <v>384</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="3"/>
+        <v>740</v>
+      </c>
+      <c r="D25">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B25">
-        <f t="shared" si="1"/>
-        <v>384</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="2"/>
-        <v>740</v>
-      </c>
-      <c r="D25">
-        <f>IF(MOD(A24,10),_xlfn.FLOOR.MATH(D24*0.99),D24+10)</f>
         <v>410</v>
       </c>
       <c r="E25">
@@ -9652,19 +9787,19 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="2"/>
+        <v>380</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="3"/>
+        <v>750</v>
+      </c>
+      <c r="D26">
         <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B26">
-        <f t="shared" si="1"/>
-        <v>380</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="2"/>
-        <v>750</v>
-      </c>
-      <c r="D26">
-        <f>IF(MOD(A25,10),_xlfn.FLOOR.MATH(D25*0.99),D25+10)</f>
         <v>405</v>
       </c>
       <c r="E26">
@@ -9673,19 +9808,19 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="2"/>
+        <v>376</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="3"/>
+        <v>760</v>
+      </c>
+      <c r="D27">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B27">
-        <f t="shared" si="1"/>
-        <v>376</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="2"/>
-        <v>760</v>
-      </c>
-      <c r="D27">
-        <f>IF(MOD(A26,10),_xlfn.FLOOR.MATH(D26*0.99),D26+10)</f>
         <v>400</v>
       </c>
       <c r="E27">
@@ -9694,19 +9829,19 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="2"/>
+        <v>372</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="3"/>
+        <v>770</v>
+      </c>
+      <c r="D28">
         <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B28">
-        <f t="shared" si="1"/>
-        <v>372</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="2"/>
-        <v>770</v>
-      </c>
-      <c r="D28">
-        <f>IF(MOD(A27,10),_xlfn.FLOOR.MATH(D27*0.99),D27+10)</f>
         <v>396</v>
       </c>
       <c r="E28">
@@ -9715,19 +9850,19 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="2"/>
+        <v>368</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="3"/>
+        <v>780</v>
+      </c>
+      <c r="D29">
         <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B29">
-        <f t="shared" si="1"/>
-        <v>368</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="2"/>
-        <v>780</v>
-      </c>
-      <c r="D29">
-        <f>IF(MOD(A28,10),_xlfn.FLOOR.MATH(D28*0.99),D28+10)</f>
         <v>392</v>
       </c>
       <c r="E29">
@@ -9736,19 +9871,19 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="2"/>
+        <v>364</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="3"/>
+        <v>790</v>
+      </c>
+      <c r="D30">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B30">
-        <f t="shared" si="1"/>
-        <v>364</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="2"/>
-        <v>790</v>
-      </c>
-      <c r="D30">
-        <f>IF(MOD(A29,10),_xlfn.FLOOR.MATH(D29*0.99),D29+10)</f>
         <v>388</v>
       </c>
       <c r="E30">
@@ -9757,19 +9892,19 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="2"/>
+        <v>360</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="3"/>
+        <v>800</v>
+      </c>
+      <c r="D31">
         <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B31">
-        <f t="shared" si="1"/>
-        <v>360</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="2"/>
-        <v>800</v>
-      </c>
-      <c r="D31">
-        <f>IF(MOD(A30,10),_xlfn.FLOOR.MATH(D30*0.99),D30+10)</f>
         <v>398</v>
       </c>
       <c r="E31">
@@ -9778,19 +9913,19 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="2"/>
+        <v>356</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="3"/>
+        <v>810</v>
+      </c>
+      <c r="D32">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B32">
-        <f t="shared" si="1"/>
-        <v>356</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="2"/>
-        <v>810</v>
-      </c>
-      <c r="D32">
-        <f>IF(MOD(A31,10),_xlfn.FLOOR.MATH(D31*0.99),D31+10)</f>
         <v>394</v>
       </c>
       <c r="E32">
@@ -9799,19 +9934,19 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="2"/>
+        <v>352</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="3"/>
+        <v>820</v>
+      </c>
+      <c r="D33">
         <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B33">
-        <f t="shared" si="1"/>
-        <v>352</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="2"/>
-        <v>820</v>
-      </c>
-      <c r="D33">
-        <f>IF(MOD(A32,10),_xlfn.FLOOR.MATH(D32*0.99),D32+10)</f>
         <v>390</v>
       </c>
       <c r="E33">
@@ -9820,19 +9955,19 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="2"/>
+        <v>348</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="3"/>
+        <v>830</v>
+      </c>
+      <c r="D34">
         <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B34">
-        <f t="shared" si="1"/>
-        <v>348</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="2"/>
-        <v>830</v>
-      </c>
-      <c r="D34">
-        <f>IF(MOD(A33,10),_xlfn.FLOOR.MATH(D33*0.99),D33+10)</f>
         <v>386</v>
       </c>
       <c r="E34">
@@ -9841,19 +9976,19 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="2"/>
+        <v>344</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="3"/>
+        <v>840</v>
+      </c>
+      <c r="D35">
         <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B35">
-        <f t="shared" si="1"/>
-        <v>344</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="2"/>
-        <v>840</v>
-      </c>
-      <c r="D35">
-        <f>IF(MOD(A34,10),_xlfn.FLOOR.MATH(D34*0.99),D34+10)</f>
         <v>382</v>
       </c>
       <c r="E35">
@@ -9862,19 +9997,19 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="2"/>
+        <v>340</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="3"/>
+        <v>850</v>
+      </c>
+      <c r="D36">
         <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B36">
-        <f t="shared" si="1"/>
-        <v>340</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="2"/>
-        <v>850</v>
-      </c>
-      <c r="D36">
-        <f>IF(MOD(A35,10),_xlfn.FLOOR.MATH(D35*0.99),D35+10)</f>
         <v>378</v>
       </c>
       <c r="E36">
@@ -9883,19 +10018,19 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="2"/>
+        <v>336</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="3"/>
+        <v>860</v>
+      </c>
+      <c r="D37">
         <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B37">
-        <f t="shared" si="1"/>
-        <v>336</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="2"/>
-        <v>860</v>
-      </c>
-      <c r="D37">
-        <f>IF(MOD(A36,10),_xlfn.FLOOR.MATH(D36*0.99),D36+10)</f>
         <v>374</v>
       </c>
       <c r="E37">
@@ -9904,19 +10039,19 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="2"/>
+        <v>332</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="3"/>
+        <v>870</v>
+      </c>
+      <c r="D38">
         <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="B38">
-        <f t="shared" si="1"/>
-        <v>332</v>
-      </c>
-      <c r="C38">
-        <f t="shared" si="2"/>
-        <v>870</v>
-      </c>
-      <c r="D38">
-        <f>IF(MOD(A37,10),_xlfn.FLOOR.MATH(D37*0.99),D37+10)</f>
         <v>370</v>
       </c>
       <c r="E38">
@@ -9925,19 +10060,19 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="2"/>
+        <v>328</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="3"/>
+        <v>880</v>
+      </c>
+      <c r="D39">
         <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="B39">
-        <f t="shared" si="1"/>
-        <v>328</v>
-      </c>
-      <c r="C39">
-        <f t="shared" si="2"/>
-        <v>880</v>
-      </c>
-      <c r="D39">
-        <f>IF(MOD(A38,10),_xlfn.FLOOR.MATH(D38*0.99),D38+10)</f>
         <v>366</v>
       </c>
       <c r="E39">
@@ -9946,19 +10081,19 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="2"/>
+        <v>324</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="3"/>
+        <v>890</v>
+      </c>
+      <c r="D40">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="B40">
-        <f t="shared" si="1"/>
-        <v>324</v>
-      </c>
-      <c r="C40">
-        <f t="shared" si="2"/>
-        <v>890</v>
-      </c>
-      <c r="D40">
-        <f>IF(MOD(A39,10),_xlfn.FLOOR.MATH(D39*0.99),D39+10)</f>
         <v>362</v>
       </c>
       <c r="E40">
@@ -9967,19 +10102,19 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="2"/>
+        <v>320</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="3"/>
+        <v>900</v>
+      </c>
+      <c r="D41">
         <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="B41">
-        <f t="shared" si="1"/>
-        <v>320</v>
-      </c>
-      <c r="C41">
-        <f t="shared" si="2"/>
-        <v>900</v>
-      </c>
-      <c r="D41">
-        <f>IF(MOD(A40,10),_xlfn.FLOOR.MATH(D40*0.99),D40+10)</f>
         <v>372</v>
       </c>
       <c r="E41">
@@ -9988,19 +10123,19 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="2"/>
+        <v>316</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="3"/>
+        <v>910</v>
+      </c>
+      <c r="D42">
         <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="B42">
-        <f t="shared" si="1"/>
-        <v>316</v>
-      </c>
-      <c r="C42">
-        <f t="shared" si="2"/>
-        <v>910</v>
-      </c>
-      <c r="D42">
-        <f>IF(MOD(A41,10),_xlfn.FLOOR.MATH(D41*0.99),D41+10)</f>
         <v>368</v>
       </c>
       <c r="E42">
@@ -10009,19 +10144,19 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="2"/>
+        <v>312</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="3"/>
+        <v>920</v>
+      </c>
+      <c r="D43">
         <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="B43">
-        <f t="shared" si="1"/>
-        <v>312</v>
-      </c>
-      <c r="C43">
-        <f t="shared" si="2"/>
-        <v>920</v>
-      </c>
-      <c r="D43">
-        <f>IF(MOD(A42,10),_xlfn.FLOOR.MATH(D42*0.99),D42+10)</f>
         <v>364</v>
       </c>
       <c r="E43">
@@ -10030,19 +10165,19 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="2"/>
+        <v>308</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="3"/>
+        <v>930</v>
+      </c>
+      <c r="D44">
         <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="B44">
-        <f t="shared" si="1"/>
-        <v>308</v>
-      </c>
-      <c r="C44">
-        <f t="shared" si="2"/>
-        <v>930</v>
-      </c>
-      <c r="D44">
-        <f>IF(MOD(A43,10),_xlfn.FLOOR.MATH(D43*0.99),D43+10)</f>
         <v>360</v>
       </c>
       <c r="E44">
@@ -10051,19 +10186,19 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="2"/>
+        <v>304</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="3"/>
+        <v>940</v>
+      </c>
+      <c r="D45">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="B45">
-        <f t="shared" si="1"/>
-        <v>304</v>
-      </c>
-      <c r="C45">
-        <f t="shared" si="2"/>
-        <v>940</v>
-      </c>
-      <c r="D45">
-        <f>IF(MOD(A44,10),_xlfn.FLOOR.MATH(D44*0.99),D44+10)</f>
         <v>356</v>
       </c>
       <c r="E45">
@@ -10072,19 +10207,19 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="3"/>
+        <v>950</v>
+      </c>
+      <c r="D46">
         <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="B46">
-        <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="C46">
-        <f t="shared" si="2"/>
-        <v>950</v>
-      </c>
-      <c r="D46">
-        <f>IF(MOD(A45,10),_xlfn.FLOOR.MATH(D45*0.99),D45+10)</f>
         <v>352</v>
       </c>
       <c r="E46">
@@ -10093,19 +10228,19 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="2"/>
+        <v>297</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="3"/>
+        <v>960</v>
+      </c>
+      <c r="D47">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="B47">
-        <f t="shared" si="1"/>
-        <v>297</v>
-      </c>
-      <c r="C47">
-        <f t="shared" si="2"/>
-        <v>960</v>
-      </c>
-      <c r="D47">
-        <f>IF(MOD(A46,10),_xlfn.FLOOR.MATH(D46*0.99),D46+10)</f>
         <v>348</v>
       </c>
       <c r="E47">
@@ -10114,19 +10249,19 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="2"/>
+        <v>294</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="3"/>
+        <v>970</v>
+      </c>
+      <c r="D48">
         <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="B48">
-        <f t="shared" si="1"/>
-        <v>294</v>
-      </c>
-      <c r="C48">
-        <f t="shared" si="2"/>
-        <v>970</v>
-      </c>
-      <c r="D48">
-        <f>IF(MOD(A47,10),_xlfn.FLOOR.MATH(D47*0.99),D47+10)</f>
         <v>344</v>
       </c>
       <c r="E48">
@@ -10135,19 +10270,19 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="2"/>
+        <v>291</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="3"/>
+        <v>980</v>
+      </c>
+      <c r="D49">
         <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="B49">
-        <f t="shared" si="1"/>
-        <v>291</v>
-      </c>
-      <c r="C49">
-        <f t="shared" si="2"/>
-        <v>980</v>
-      </c>
-      <c r="D49">
-        <f>IF(MOD(A48,10),_xlfn.FLOOR.MATH(D48*0.99),D48+10)</f>
         <v>340</v>
       </c>
       <c r="E49">
@@ -10156,19 +10291,19 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="2"/>
+        <v>288</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="3"/>
+        <v>990</v>
+      </c>
+      <c r="D50">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="B50">
-        <f t="shared" si="1"/>
-        <v>288</v>
-      </c>
-      <c r="C50">
-        <f t="shared" si="2"/>
-        <v>990</v>
-      </c>
-      <c r="D50">
-        <f>IF(MOD(A49,10),_xlfn.FLOOR.MATH(D49*0.99),D49+10)</f>
         <v>336</v>
       </c>
       <c r="E50">
@@ -10177,19 +10312,19 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="2"/>
+        <v>285</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="D51">
         <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="B51">
-        <f t="shared" si="1"/>
-        <v>285</v>
-      </c>
-      <c r="C51">
-        <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
-      <c r="D51">
-        <f>IF(MOD(A50,10),_xlfn.FLOOR.MATH(D50*0.99),D50+10)</f>
         <v>346</v>
       </c>
       <c r="E51">
@@ -10198,19 +10333,19 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="2"/>
+        <v>282</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="3"/>
+        <v>1010</v>
+      </c>
+      <c r="D52">
         <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="B52">
-        <f t="shared" si="1"/>
-        <v>282</v>
-      </c>
-      <c r="C52">
-        <f t="shared" si="2"/>
-        <v>1010</v>
-      </c>
-      <c r="D52">
-        <f>IF(MOD(A51,10),_xlfn.FLOOR.MATH(D51*0.99),D51+10)</f>
         <v>342</v>
       </c>
       <c r="E52">
@@ -10219,19 +10354,19 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="2"/>
+        <v>279</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="3"/>
+        <v>1020</v>
+      </c>
+      <c r="D53">
         <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="B53">
-        <f t="shared" si="1"/>
-        <v>279</v>
-      </c>
-      <c r="C53">
-        <f t="shared" si="2"/>
-        <v>1020</v>
-      </c>
-      <c r="D53">
-        <f>IF(MOD(A52,10),_xlfn.FLOOR.MATH(D52*0.99),D52+10)</f>
         <v>338</v>
       </c>
       <c r="E53">
@@ -10240,19 +10375,19 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="2"/>
+        <v>276</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="3"/>
+        <v>1030</v>
+      </c>
+      <c r="D54">
         <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="B54">
-        <f t="shared" si="1"/>
-        <v>276</v>
-      </c>
-      <c r="C54">
-        <f t="shared" si="2"/>
-        <v>1030</v>
-      </c>
-      <c r="D54">
-        <f>IF(MOD(A53,10),_xlfn.FLOOR.MATH(D53*0.99),D53+10)</f>
         <v>334</v>
       </c>
       <c r="E54">
@@ -10261,19 +10396,19 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="2"/>
+        <v>273</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="3"/>
+        <v>1040</v>
+      </c>
+      <c r="D55">
         <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="B55">
-        <f t="shared" si="1"/>
-        <v>273</v>
-      </c>
-      <c r="C55">
-        <f t="shared" si="2"/>
-        <v>1040</v>
-      </c>
-      <c r="D55">
-        <f>IF(MOD(A54,10),_xlfn.FLOOR.MATH(D54*0.99),D54+10)</f>
         <v>330</v>
       </c>
       <c r="E55">
@@ -10282,19 +10417,19 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="2"/>
+        <v>270</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="3"/>
+        <v>1050</v>
+      </c>
+      <c r="D56">
         <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="B56">
-        <f t="shared" si="1"/>
-        <v>270</v>
-      </c>
-      <c r="C56">
-        <f t="shared" si="2"/>
-        <v>1050</v>
-      </c>
-      <c r="D56">
-        <f>IF(MOD(A55,10),_xlfn.FLOOR.MATH(D55*0.99),D55+10)</f>
         <v>326</v>
       </c>
       <c r="E56">
@@ -10303,19 +10438,19 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="2"/>
+        <v>267</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="3"/>
+        <v>1060</v>
+      </c>
+      <c r="D57">
         <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="B57">
-        <f t="shared" si="1"/>
-        <v>267</v>
-      </c>
-      <c r="C57">
-        <f t="shared" si="2"/>
-        <v>1060</v>
-      </c>
-      <c r="D57">
-        <f>IF(MOD(A56,10),_xlfn.FLOOR.MATH(D56*0.99),D56+10)</f>
         <v>322</v>
       </c>
       <c r="E57">
@@ -10324,19 +10459,19 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="2"/>
+        <v>264</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="3"/>
+        <v>1070</v>
+      </c>
+      <c r="D58">
         <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="B58">
-        <f t="shared" si="1"/>
-        <v>264</v>
-      </c>
-      <c r="C58">
-        <f t="shared" si="2"/>
-        <v>1070</v>
-      </c>
-      <c r="D58">
-        <f>IF(MOD(A57,10),_xlfn.FLOOR.MATH(D57*0.99),D57+10)</f>
         <v>318</v>
       </c>
       <c r="E58">
@@ -10345,19 +10480,19 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="2"/>
+        <v>261</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="3"/>
+        <v>1080</v>
+      </c>
+      <c r="D59">
         <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="B59">
-        <f t="shared" si="1"/>
-        <v>261</v>
-      </c>
-      <c r="C59">
-        <f t="shared" si="2"/>
-        <v>1080</v>
-      </c>
-      <c r="D59">
-        <f>IF(MOD(A58,10),_xlfn.FLOOR.MATH(D58*0.99),D58+10)</f>
         <v>314</v>
       </c>
       <c r="E59">
@@ -10366,19 +10501,19 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="2"/>
+        <v>258</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="3"/>
+        <v>1090</v>
+      </c>
+      <c r="D60">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="B60">
-        <f t="shared" si="1"/>
-        <v>258</v>
-      </c>
-      <c r="C60">
-        <f t="shared" si="2"/>
-        <v>1090</v>
-      </c>
-      <c r="D60">
-        <f>IF(MOD(A59,10),_xlfn.FLOOR.MATH(D59*0.99),D59+10)</f>
         <v>310</v>
       </c>
       <c r="E60">
@@ -10387,19 +10522,19 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="3"/>
+        <v>1100</v>
+      </c>
+      <c r="D61">
         <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="B61">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-      <c r="C61">
-        <f t="shared" si="2"/>
-        <v>1100</v>
-      </c>
-      <c r="D61">
-        <f>IF(MOD(A60,10),_xlfn.FLOOR.MATH(D60*0.99),D60+10)</f>
         <v>320</v>
       </c>
       <c r="E61">
@@ -10408,19 +10543,19 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="2"/>
+        <v>252</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="3"/>
+        <v>1110</v>
+      </c>
+      <c r="D62">
         <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="B62">
-        <f t="shared" si="1"/>
-        <v>252</v>
-      </c>
-      <c r="C62">
-        <f t="shared" si="2"/>
-        <v>1110</v>
-      </c>
-      <c r="D62">
-        <f>IF(MOD(A61,10),_xlfn.FLOOR.MATH(D61*0.99),D61+10)</f>
         <v>316</v>
       </c>
       <c r="E62">
@@ -10429,19 +10564,19 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="2"/>
+        <v>249</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="3"/>
+        <v>1120</v>
+      </c>
+      <c r="D63">
         <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="B63">
-        <f t="shared" si="1"/>
-        <v>249</v>
-      </c>
-      <c r="C63">
-        <f t="shared" si="2"/>
-        <v>1120</v>
-      </c>
-      <c r="D63">
-        <f>IF(MOD(A62,10),_xlfn.FLOOR.MATH(D62*0.99),D62+10)</f>
         <v>312</v>
       </c>
       <c r="E63">
@@ -10450,19 +10585,19 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="2"/>
+        <v>246</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="3"/>
+        <v>1130</v>
+      </c>
+      <c r="D64">
         <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="B64">
-        <f t="shared" si="1"/>
-        <v>246</v>
-      </c>
-      <c r="C64">
-        <f t="shared" si="2"/>
-        <v>1130</v>
-      </c>
-      <c r="D64">
-        <f>IF(MOD(A63,10),_xlfn.FLOOR.MATH(D63*0.99),D63+10)</f>
         <v>308</v>
       </c>
       <c r="E64">
@@ -10471,19 +10606,19 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="2"/>
+        <v>243</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="3"/>
+        <v>1140</v>
+      </c>
+      <c r="D65">
         <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="B65">
-        <f t="shared" si="1"/>
-        <v>243</v>
-      </c>
-      <c r="C65">
-        <f t="shared" si="2"/>
-        <v>1140</v>
-      </c>
-      <c r="D65">
-        <f>IF(MOD(A64,10),_xlfn.FLOOR.MATH(D64*0.99),D64+10)</f>
         <v>304</v>
       </c>
       <c r="E65">
@@ -10492,19 +10627,19 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="B66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="C66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1150</v>
       </c>
       <c r="D66">
-        <f>IF(MOD(A65,10),_xlfn.FLOOR.MATH(D65*0.99),D65+10)</f>
+        <f t="shared" ref="D66:D129" si="4">IF(MOD(A65,10),_xlfn.FLOOR.MATH(D65*0.99),D65+10)</f>
         <v>300</v>
       </c>
       <c r="E66">
@@ -10513,19 +10648,19 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
-        <f t="shared" ref="A67:A130" si="3">A66 + 1</f>
+        <f t="shared" ref="A67:A130" si="5">A66 + 1</f>
         <v>67</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B130" si="4">_xlfn.FLOOR.MATH(B66*0.99)</f>
+        <f t="shared" ref="B67:B130" si="6">_xlfn.FLOOR.MATH(B66*0.99)</f>
         <v>237</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C130" si="5">IF(MOD(A66,1),_xlfn.FLOOR.MATH(C66*0.99),C66+10)</f>
+        <f t="shared" ref="C67:C118" si="7">IF(MOD(A66,1),_xlfn.FLOOR.MATH(C66*0.99),C66+10)</f>
         <v>1160</v>
       </c>
       <c r="D67">
-        <f>IF(MOD(A66,10),_xlfn.FLOOR.MATH(D66*0.99),D66+10)</f>
+        <f t="shared" si="4"/>
         <v>297</v>
       </c>
       <c r="E67">
@@ -10534,19 +10669,19 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="B68">
+        <f t="shared" si="6"/>
+        <v>234</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="7"/>
+        <v>1170</v>
+      </c>
+      <c r="D68">
         <f t="shared" si="4"/>
-        <v>234</v>
-      </c>
-      <c r="C68">
-        <f t="shared" si="5"/>
-        <v>1170</v>
-      </c>
-      <c r="D68">
-        <f>IF(MOD(A67,10),_xlfn.FLOOR.MATH(D67*0.99),D67+10)</f>
         <v>294</v>
       </c>
       <c r="E68">
@@ -10555,19 +10690,19 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>69</v>
       </c>
       <c r="B69">
+        <f t="shared" si="6"/>
+        <v>231</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="7"/>
+        <v>1180</v>
+      </c>
+      <c r="D69">
         <f t="shared" si="4"/>
-        <v>231</v>
-      </c>
-      <c r="C69">
-        <f t="shared" si="5"/>
-        <v>1180</v>
-      </c>
-      <c r="D69">
-        <f>IF(MOD(A68,10),_xlfn.FLOOR.MATH(D68*0.99),D68+10)</f>
         <v>291</v>
       </c>
       <c r="E69">
@@ -10576,19 +10711,19 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
       <c r="B70">
+        <f t="shared" si="6"/>
+        <v>228</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="7"/>
+        <v>1190</v>
+      </c>
+      <c r="D70">
         <f t="shared" si="4"/>
-        <v>228</v>
-      </c>
-      <c r="C70">
-        <f t="shared" si="5"/>
-        <v>1190</v>
-      </c>
-      <c r="D70">
-        <f>IF(MOD(A69,10),_xlfn.FLOOR.MATH(D69*0.99),D69+10)</f>
         <v>288</v>
       </c>
       <c r="E70">
@@ -10597,19 +10732,19 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>71</v>
       </c>
       <c r="B71">
+        <f t="shared" si="6"/>
+        <v>225</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="7"/>
+        <v>1200</v>
+      </c>
+      <c r="D71">
         <f t="shared" si="4"/>
-        <v>225</v>
-      </c>
-      <c r="C71">
-        <f t="shared" si="5"/>
-        <v>1200</v>
-      </c>
-      <c r="D71">
-        <f>IF(MOD(A70,10),_xlfn.FLOOR.MATH(D70*0.99),D70+10)</f>
         <v>298</v>
       </c>
       <c r="E71">
@@ -10618,19 +10753,19 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>72</v>
       </c>
       <c r="B72">
+        <f t="shared" si="6"/>
+        <v>222</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="7"/>
+        <v>1210</v>
+      </c>
+      <c r="D72">
         <f t="shared" si="4"/>
-        <v>222</v>
-      </c>
-      <c r="C72">
-        <f t="shared" si="5"/>
-        <v>1210</v>
-      </c>
-      <c r="D72">
-        <f>IF(MOD(A71,10),_xlfn.FLOOR.MATH(D71*0.99),D71+10)</f>
         <v>295</v>
       </c>
       <c r="E72">
@@ -10639,19 +10774,19 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>73</v>
       </c>
       <c r="B73">
+        <f t="shared" si="6"/>
+        <v>219</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="7"/>
+        <v>1220</v>
+      </c>
+      <c r="D73">
         <f t="shared" si="4"/>
-        <v>219</v>
-      </c>
-      <c r="C73">
-        <f t="shared" si="5"/>
-        <v>1220</v>
-      </c>
-      <c r="D73">
-        <f>IF(MOD(A72,10),_xlfn.FLOOR.MATH(D72*0.99),D72+10)</f>
         <v>292</v>
       </c>
       <c r="E73">
@@ -10660,19 +10795,19 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>74</v>
       </c>
       <c r="B74">
+        <f t="shared" si="6"/>
+        <v>216</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="7"/>
+        <v>1230</v>
+      </c>
+      <c r="D74">
         <f t="shared" si="4"/>
-        <v>216</v>
-      </c>
-      <c r="C74">
-        <f t="shared" si="5"/>
-        <v>1230</v>
-      </c>
-      <c r="D74">
-        <f>IF(MOD(A73,10),_xlfn.FLOOR.MATH(D73*0.99),D73+10)</f>
         <v>289</v>
       </c>
       <c r="E74">
@@ -10681,1126 +10816,1126 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="B75">
+        <f t="shared" si="6"/>
+        <v>213</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="7"/>
+        <v>1240</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="4"/>
+        <v>286</v>
+      </c>
+      <c r="E75">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="5"/>
+        <v>76</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="6"/>
+        <v>210</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="7"/>
+        <v>1250</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="4"/>
+        <v>283</v>
+      </c>
+      <c r="E76">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" si="5"/>
+        <v>77</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="6"/>
+        <v>207</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="7"/>
+        <v>1260</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="4"/>
+        <v>280</v>
+      </c>
+      <c r="E77">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" si="5"/>
+        <v>78</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="6"/>
+        <v>204</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="7"/>
+        <v>1270</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="4"/>
+        <v>277</v>
+      </c>
+      <c r="E78">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="6"/>
+        <v>201</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="7"/>
+        <v>1280</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="4"/>
+        <v>274</v>
+      </c>
+      <c r="E79">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="6"/>
+        <v>198</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="7"/>
+        <v>1290</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="4"/>
+        <v>271</v>
+      </c>
+      <c r="E80">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="6"/>
+        <v>196</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="7"/>
+        <v>1300</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="4"/>
+        <v>281</v>
+      </c>
+      <c r="E81">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f t="shared" si="5"/>
+        <v>82</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="6"/>
+        <v>194</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="7"/>
+        <v>1310</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="4"/>
+        <v>278</v>
+      </c>
+      <c r="E82">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f t="shared" si="5"/>
+        <v>83</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="6"/>
+        <v>192</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="7"/>
+        <v>1320</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="4"/>
+        <v>275</v>
+      </c>
+      <c r="E83">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f t="shared" si="5"/>
+        <v>84</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="6"/>
+        <v>190</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="7"/>
+        <v>1330</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="4"/>
+        <v>272</v>
+      </c>
+      <c r="E84">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f t="shared" si="5"/>
+        <v>85</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="6"/>
+        <v>188</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="7"/>
+        <v>1340</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="4"/>
+        <v>269</v>
+      </c>
+      <c r="E85">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f t="shared" si="5"/>
+        <v>86</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="6"/>
+        <v>186</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="7"/>
+        <v>1350</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="4"/>
+        <v>266</v>
+      </c>
+      <c r="E86">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f t="shared" si="5"/>
+        <v>87</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="6"/>
+        <v>184</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="7"/>
+        <v>1360</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="4"/>
+        <v>263</v>
+      </c>
+      <c r="E87">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f t="shared" si="5"/>
+        <v>88</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="6"/>
+        <v>182</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="7"/>
+        <v>1370</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="4"/>
+        <v>260</v>
+      </c>
+      <c r="E88">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f t="shared" si="5"/>
+        <v>89</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="6"/>
+        <v>180</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="7"/>
+        <v>1380</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="4"/>
+        <v>257</v>
+      </c>
+      <c r="E89">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="6"/>
+        <v>178</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="7"/>
+        <v>1390</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="4"/>
+        <v>254</v>
+      </c>
+      <c r="E90">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f t="shared" si="5"/>
+        <v>91</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="6"/>
+        <v>176</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="7"/>
+        <v>1400</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="4"/>
+        <v>264</v>
+      </c>
+      <c r="E91">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f t="shared" si="5"/>
+        <v>92</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="6"/>
+        <v>174</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="7"/>
+        <v>1410</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="4"/>
+        <v>261</v>
+      </c>
+      <c r="E92">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f t="shared" si="5"/>
+        <v>93</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="6"/>
+        <v>172</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="7"/>
+        <v>1420</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="4"/>
+        <v>258</v>
+      </c>
+      <c r="E93">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <f t="shared" si="5"/>
+        <v>94</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="6"/>
+        <v>170</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="7"/>
+        <v>1430</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="E94">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <f t="shared" si="5"/>
+        <v>95</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="6"/>
+        <v>168</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="7"/>
+        <v>1440</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="4"/>
+        <v>252</v>
+      </c>
+      <c r="E95">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <f t="shared" si="5"/>
+        <v>96</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="6"/>
+        <v>166</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="7"/>
+        <v>1450</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="4"/>
+        <v>249</v>
+      </c>
+      <c r="E96">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <f t="shared" si="5"/>
+        <v>97</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="6"/>
+        <v>164</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="7"/>
+        <v>1460</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="4"/>
+        <v>246</v>
+      </c>
+      <c r="E97">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <f t="shared" si="5"/>
+        <v>98</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="6"/>
+        <v>162</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="7"/>
+        <v>1470</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="4"/>
+        <v>243</v>
+      </c>
+      <c r="E98">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f t="shared" si="5"/>
+        <v>99</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="6"/>
+        <v>160</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="7"/>
+        <v>1480</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="4"/>
+        <v>240</v>
+      </c>
+      <c r="E99">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="6"/>
+        <v>158</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="7"/>
+        <v>1490</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="4"/>
+        <v>237</v>
+      </c>
+      <c r="E100">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <f t="shared" si="5"/>
+        <v>101</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="6"/>
+        <v>156</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="7"/>
+        <v>1500</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="4"/>
+        <v>247</v>
+      </c>
+      <c r="E101">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <f t="shared" si="5"/>
+        <v>102</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="6"/>
+        <v>154</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="7"/>
+        <v>1510</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="4"/>
+        <v>244</v>
+      </c>
+      <c r="E102">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <f t="shared" si="5"/>
+        <v>103</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="6"/>
+        <v>152</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="7"/>
+        <v>1520</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="4"/>
+        <v>241</v>
+      </c>
+      <c r="E103">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <f t="shared" si="5"/>
+        <v>104</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="6"/>
+        <v>150</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="7"/>
+        <v>1530</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="4"/>
+        <v>238</v>
+      </c>
+      <c r="E104">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <f t="shared" si="5"/>
+        <v>105</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="6"/>
+        <v>148</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="7"/>
+        <v>1540</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="4"/>
+        <v>235</v>
+      </c>
+      <c r="E105">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="6"/>
+        <v>146</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="7"/>
+        <v>1550</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="4"/>
+        <v>232</v>
+      </c>
+      <c r="E106">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <f t="shared" si="5"/>
+        <v>107</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="6"/>
+        <v>144</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="7"/>
+        <v>1560</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="4"/>
+        <v>229</v>
+      </c>
+      <c r="E107">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <f t="shared" si="5"/>
+        <v>108</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="6"/>
+        <v>142</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="7"/>
+        <v>1570</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="4"/>
+        <v>226</v>
+      </c>
+      <c r="E108">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <f t="shared" si="5"/>
+        <v>109</v>
+      </c>
+      <c r="B109">
+        <f t="shared" si="6"/>
+        <v>140</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="7"/>
+        <v>1580</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="4"/>
+        <v>223</v>
+      </c>
+      <c r="E109">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <f t="shared" si="5"/>
+        <v>110</v>
+      </c>
+      <c r="B110">
+        <f t="shared" si="6"/>
+        <v>138</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="7"/>
+        <v>1590</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="4"/>
+        <v>220</v>
+      </c>
+      <c r="E110">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <f t="shared" si="5"/>
+        <v>111</v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="6"/>
+        <v>136</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="7"/>
+        <v>1600</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="4"/>
+        <v>230</v>
+      </c>
+      <c r="E111">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <f t="shared" si="5"/>
+        <v>112</v>
+      </c>
+      <c r="B112">
+        <f t="shared" si="6"/>
+        <v>134</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="7"/>
+        <v>1610</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="4"/>
+        <v>227</v>
+      </c>
+      <c r="E112">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <f t="shared" si="5"/>
+        <v>113</v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="6"/>
+        <v>132</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="7"/>
+        <v>1620</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="4"/>
+        <v>224</v>
+      </c>
+      <c r="E113">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <f t="shared" si="5"/>
+        <v>114</v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="6"/>
+        <v>130</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="7"/>
+        <v>1630</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="4"/>
+        <v>221</v>
+      </c>
+      <c r="E114">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <f t="shared" si="5"/>
+        <v>115</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="6"/>
+        <v>128</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="7"/>
+        <v>1640</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="4"/>
+        <v>218</v>
+      </c>
+      <c r="E115">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <f t="shared" si="5"/>
+        <v>116</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="6"/>
+        <v>126</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="7"/>
+        <v>1650</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="4"/>
+        <v>215</v>
+      </c>
+      <c r="E116">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <f t="shared" si="5"/>
+        <v>117</v>
+      </c>
+      <c r="B117">
+        <f t="shared" si="6"/>
+        <v>124</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="7"/>
+        <v>1660</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="4"/>
+        <v>212</v>
+      </c>
+      <c r="E117">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <f t="shared" si="5"/>
+        <v>118</v>
+      </c>
+      <c r="B118">
+        <f t="shared" si="6"/>
+        <v>122</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="7"/>
+        <v>1670</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="4"/>
+        <v>209</v>
+      </c>
+      <c r="E118">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <f t="shared" si="5"/>
+        <v>119</v>
+      </c>
+      <c r="B119">
+        <f t="shared" si="6"/>
+        <v>120</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="4"/>
+        <v>206</v>
+      </c>
+      <c r="E119">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
+      <c r="B120">
+        <f t="shared" si="6"/>
+        <v>118</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="4"/>
+        <v>203</v>
+      </c>
+      <c r="E120">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <f t="shared" si="5"/>
+        <v>121</v>
+      </c>
+      <c r="B121">
+        <f t="shared" si="6"/>
+        <v>116</v>
+      </c>
+      <c r="D121">
         <f t="shared" si="4"/>
         <v>213</v>
       </c>
-      <c r="C75">
+      <c r="E121">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
         <f t="shared" si="5"/>
-        <v>1240</v>
-      </c>
-      <c r="D75">
-        <f>IF(MOD(A74,10),_xlfn.FLOOR.MATH(D74*0.99),D74+10)</f>
-        <v>286</v>
-      </c>
-      <c r="E75">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <f t="shared" si="3"/>
-        <v>76</v>
-      </c>
-      <c r="B76">
+        <v>122</v>
+      </c>
+      <c r="B122">
+        <f t="shared" si="6"/>
+        <v>114</v>
+      </c>
+      <c r="D122">
         <f t="shared" si="4"/>
         <v>210</v>
       </c>
-      <c r="C76">
+      <c r="E122">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123">
         <f t="shared" si="5"/>
-        <v>1250</v>
-      </c>
-      <c r="D76">
-        <f>IF(MOD(A75,10),_xlfn.FLOOR.MATH(D75*0.99),D75+10)</f>
-        <v>283</v>
-      </c>
-      <c r="E76">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <f t="shared" si="3"/>
-        <v>77</v>
-      </c>
-      <c r="B77">
+        <v>123</v>
+      </c>
+      <c r="B123">
+        <f t="shared" si="6"/>
+        <v>112</v>
+      </c>
+      <c r="D123">
         <f t="shared" si="4"/>
         <v>207</v>
       </c>
-      <c r="C77">
+      <c r="E123">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124">
         <f t="shared" si="5"/>
-        <v>1260</v>
-      </c>
-      <c r="D77">
-        <f>IF(MOD(A76,10),_xlfn.FLOOR.MATH(D76*0.99),D76+10)</f>
-        <v>280</v>
-      </c>
-      <c r="E77">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <f t="shared" si="3"/>
-        <v>78</v>
-      </c>
-      <c r="B78">
+        <v>124</v>
+      </c>
+      <c r="B124">
+        <f t="shared" si="6"/>
+        <v>110</v>
+      </c>
+      <c r="D124">
         <f t="shared" si="4"/>
         <v>204</v>
       </c>
-      <c r="C78">
+      <c r="E124">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125">
         <f t="shared" si="5"/>
-        <v>1270</v>
-      </c>
-      <c r="D78">
-        <f>IF(MOD(A77,10),_xlfn.FLOOR.MATH(D77*0.99),D77+10)</f>
-        <v>277</v>
-      </c>
-      <c r="E78">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <f t="shared" si="3"/>
-        <v>79</v>
-      </c>
-      <c r="B79">
+        <v>125</v>
+      </c>
+      <c r="B125">
+        <f t="shared" si="6"/>
+        <v>108</v>
+      </c>
+      <c r="D125">
         <f t="shared" si="4"/>
         <v>201</v>
       </c>
-      <c r="C79">
+      <c r="E125">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126">
         <f t="shared" si="5"/>
-        <v>1280</v>
-      </c>
-      <c r="D79">
-        <f>IF(MOD(A78,10),_xlfn.FLOOR.MATH(D78*0.99),D78+10)</f>
-        <v>274</v>
-      </c>
-      <c r="E79">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="B80">
+        <v>126</v>
+      </c>
+      <c r="B126">
+        <f t="shared" si="6"/>
+        <v>106</v>
+      </c>
+      <c r="D126">
         <f t="shared" si="4"/>
         <v>198</v>
       </c>
-      <c r="C80">
+      <c r="E126">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127">
         <f t="shared" si="5"/>
-        <v>1290</v>
-      </c>
-      <c r="D80">
-        <f>IF(MOD(A79,10),_xlfn.FLOOR.MATH(D79*0.99),D79+10)</f>
-        <v>271</v>
-      </c>
-      <c r="E80">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <f t="shared" si="3"/>
-        <v>81</v>
-      </c>
-      <c r="B81">
+        <v>127</v>
+      </c>
+      <c r="B127">
+        <f t="shared" si="6"/>
+        <v>104</v>
+      </c>
+      <c r="D127">
         <f t="shared" si="4"/>
         <v>196</v>
       </c>
-      <c r="C81">
+      <c r="E127">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128">
         <f t="shared" si="5"/>
-        <v>1300</v>
-      </c>
-      <c r="D81">
-        <f>IF(MOD(A80,10),_xlfn.FLOOR.MATH(D80*0.99),D80+10)</f>
-        <v>281</v>
-      </c>
-      <c r="E81">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <f t="shared" si="3"/>
-        <v>82</v>
-      </c>
-      <c r="B82">
+        <v>128</v>
+      </c>
+      <c r="B128">
+        <f t="shared" si="6"/>
+        <v>102</v>
+      </c>
+      <c r="D128">
         <f t="shared" si="4"/>
         <v>194</v>
       </c>
-      <c r="C82">
+      <c r="E128">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129">
         <f t="shared" si="5"/>
-        <v>1310</v>
-      </c>
-      <c r="D82">
-        <f>IF(MOD(A81,10),_xlfn.FLOOR.MATH(D81*0.99),D81+10)</f>
-        <v>278</v>
-      </c>
-      <c r="E82">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <f t="shared" si="3"/>
-        <v>83</v>
-      </c>
-      <c r="B83">
+        <v>129</v>
+      </c>
+      <c r="B129">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="D129">
         <f t="shared" si="4"/>
         <v>192</v>
       </c>
-      <c r="C83">
-        <f t="shared" si="5"/>
-        <v>1320</v>
-      </c>
-      <c r="D83">
-        <f>IF(MOD(A82,10),_xlfn.FLOOR.MATH(D82*0.99),D82+10)</f>
-        <v>275</v>
-      </c>
-      <c r="E83">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <f t="shared" si="3"/>
-        <v>84</v>
-      </c>
-      <c r="B84">
-        <f t="shared" si="4"/>
-        <v>190</v>
-      </c>
-      <c r="C84">
-        <f t="shared" si="5"/>
-        <v>1330</v>
-      </c>
-      <c r="D84">
-        <f>IF(MOD(A83,10),_xlfn.FLOOR.MATH(D83*0.99),D83+10)</f>
-        <v>272</v>
-      </c>
-      <c r="E84">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <f t="shared" si="3"/>
-        <v>85</v>
-      </c>
-      <c r="B85">
-        <f t="shared" si="4"/>
-        <v>188</v>
-      </c>
-      <c r="C85">
-        <f t="shared" si="5"/>
-        <v>1340</v>
-      </c>
-      <c r="D85">
-        <f>IF(MOD(A84,10),_xlfn.FLOOR.MATH(D84*0.99),D84+10)</f>
-        <v>269</v>
-      </c>
-      <c r="E85">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <f t="shared" si="3"/>
-        <v>86</v>
-      </c>
-      <c r="B86">
-        <f t="shared" si="4"/>
-        <v>186</v>
-      </c>
-      <c r="C86">
-        <f t="shared" si="5"/>
-        <v>1350</v>
-      </c>
-      <c r="D86">
-        <f>IF(MOD(A85,10),_xlfn.FLOOR.MATH(D85*0.99),D85+10)</f>
-        <v>266</v>
-      </c>
-      <c r="E86">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <f t="shared" si="3"/>
-        <v>87</v>
-      </c>
-      <c r="B87">
-        <f t="shared" si="4"/>
-        <v>184</v>
-      </c>
-      <c r="C87">
-        <f t="shared" si="5"/>
-        <v>1360</v>
-      </c>
-      <c r="D87">
-        <f>IF(MOD(A86,10),_xlfn.FLOOR.MATH(D86*0.99),D86+10)</f>
-        <v>263</v>
-      </c>
-      <c r="E87">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <f t="shared" si="3"/>
-        <v>88</v>
-      </c>
-      <c r="B88">
-        <f t="shared" si="4"/>
-        <v>182</v>
-      </c>
-      <c r="C88">
-        <f t="shared" si="5"/>
-        <v>1370</v>
-      </c>
-      <c r="D88">
-        <f>IF(MOD(A87,10),_xlfn.FLOOR.MATH(D87*0.99),D87+10)</f>
-        <v>260</v>
-      </c>
-      <c r="E88">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <f t="shared" si="3"/>
-        <v>89</v>
-      </c>
-      <c r="B89">
-        <f t="shared" si="4"/>
-        <v>180</v>
-      </c>
-      <c r="C89">
-        <f t="shared" si="5"/>
-        <v>1380</v>
-      </c>
-      <c r="D89">
-        <f>IF(MOD(A88,10),_xlfn.FLOOR.MATH(D88*0.99),D88+10)</f>
-        <v>257</v>
-      </c>
-      <c r="E89">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
-      <c r="B90">
-        <f t="shared" si="4"/>
-        <v>178</v>
-      </c>
-      <c r="C90">
-        <f t="shared" si="5"/>
-        <v>1390</v>
-      </c>
-      <c r="D90">
-        <f>IF(MOD(A89,10),_xlfn.FLOOR.MATH(D89*0.99),D89+10)</f>
-        <v>254</v>
-      </c>
-      <c r="E90">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <f t="shared" si="3"/>
-        <v>91</v>
-      </c>
-      <c r="B91">
-        <f t="shared" si="4"/>
-        <v>176</v>
-      </c>
-      <c r="C91">
-        <f t="shared" si="5"/>
-        <v>1400</v>
-      </c>
-      <c r="D91">
-        <f>IF(MOD(A90,10),_xlfn.FLOOR.MATH(D90*0.99),D90+10)</f>
-        <v>264</v>
-      </c>
-      <c r="E91">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <f t="shared" si="3"/>
-        <v>92</v>
-      </c>
-      <c r="B92">
-        <f t="shared" si="4"/>
-        <v>174</v>
-      </c>
-      <c r="C92">
-        <f t="shared" si="5"/>
-        <v>1410</v>
-      </c>
-      <c r="D92">
-        <f>IF(MOD(A91,10),_xlfn.FLOOR.MATH(D91*0.99),D91+10)</f>
-        <v>261</v>
-      </c>
-      <c r="E92">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <f t="shared" si="3"/>
-        <v>93</v>
-      </c>
-      <c r="B93">
-        <f t="shared" si="4"/>
-        <v>172</v>
-      </c>
-      <c r="C93">
-        <f t="shared" si="5"/>
-        <v>1420</v>
-      </c>
-      <c r="D93">
-        <f>IF(MOD(A92,10),_xlfn.FLOOR.MATH(D92*0.99),D92+10)</f>
-        <v>258</v>
-      </c>
-      <c r="E93">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <f t="shared" si="3"/>
-        <v>94</v>
-      </c>
-      <c r="B94">
-        <f t="shared" si="4"/>
-        <v>170</v>
-      </c>
-      <c r="C94">
-        <f t="shared" si="5"/>
-        <v>1430</v>
-      </c>
-      <c r="D94">
-        <f>IF(MOD(A93,10),_xlfn.FLOOR.MATH(D93*0.99),D93+10)</f>
-        <v>255</v>
-      </c>
-      <c r="E94">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <f t="shared" si="3"/>
-        <v>95</v>
-      </c>
-      <c r="B95">
-        <f t="shared" si="4"/>
-        <v>168</v>
-      </c>
-      <c r="C95">
-        <f t="shared" si="5"/>
-        <v>1440</v>
-      </c>
-      <c r="D95">
-        <f>IF(MOD(A94,10),_xlfn.FLOOR.MATH(D94*0.99),D94+10)</f>
-        <v>252</v>
-      </c>
-      <c r="E95">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <f t="shared" si="3"/>
-        <v>96</v>
-      </c>
-      <c r="B96">
-        <f t="shared" si="4"/>
-        <v>166</v>
-      </c>
-      <c r="C96">
-        <f t="shared" si="5"/>
-        <v>1450</v>
-      </c>
-      <c r="D96">
-        <f>IF(MOD(A95,10),_xlfn.FLOOR.MATH(D95*0.99),D95+10)</f>
-        <v>249</v>
-      </c>
-      <c r="E96">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <f t="shared" si="3"/>
-        <v>97</v>
-      </c>
-      <c r="B97">
-        <f t="shared" si="4"/>
-        <v>164</v>
-      </c>
-      <c r="C97">
-        <f t="shared" si="5"/>
-        <v>1460</v>
-      </c>
-      <c r="D97">
-        <f>IF(MOD(A96,10),_xlfn.FLOOR.MATH(D96*0.99),D96+10)</f>
-        <v>246</v>
-      </c>
-      <c r="E97">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <f t="shared" si="3"/>
-        <v>98</v>
-      </c>
-      <c r="B98">
-        <f t="shared" si="4"/>
-        <v>162</v>
-      </c>
-      <c r="C98">
-        <f t="shared" si="5"/>
-        <v>1470</v>
-      </c>
-      <c r="D98">
-        <f>IF(MOD(A97,10),_xlfn.FLOOR.MATH(D97*0.99),D97+10)</f>
-        <v>243</v>
-      </c>
-      <c r="E98">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <f t="shared" si="3"/>
-        <v>99</v>
-      </c>
-      <c r="B99">
-        <f t="shared" si="4"/>
-        <v>160</v>
-      </c>
-      <c r="C99">
-        <f t="shared" si="5"/>
-        <v>1480</v>
-      </c>
-      <c r="D99">
-        <f>IF(MOD(A98,10),_xlfn.FLOOR.MATH(D98*0.99),D98+10)</f>
-        <v>240</v>
-      </c>
-      <c r="E99">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="B100">
-        <f t="shared" si="4"/>
-        <v>158</v>
-      </c>
-      <c r="C100">
-        <f t="shared" si="5"/>
-        <v>1490</v>
-      </c>
-      <c r="D100">
-        <f>IF(MOD(A99,10),_xlfn.FLOOR.MATH(D99*0.99),D99+10)</f>
-        <v>237</v>
-      </c>
-      <c r="E100">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <f t="shared" si="3"/>
-        <v>101</v>
-      </c>
-      <c r="B101">
-        <f t="shared" si="4"/>
-        <v>156</v>
-      </c>
-      <c r="C101">
-        <f t="shared" si="5"/>
-        <v>1500</v>
-      </c>
-      <c r="D101">
-        <f>IF(MOD(A100,10),_xlfn.FLOOR.MATH(D100*0.99),D100+10)</f>
-        <v>247</v>
-      </c>
-      <c r="E101">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <f t="shared" si="3"/>
-        <v>102</v>
-      </c>
-      <c r="B102">
-        <f t="shared" si="4"/>
-        <v>154</v>
-      </c>
-      <c r="C102">
-        <f t="shared" si="5"/>
-        <v>1510</v>
-      </c>
-      <c r="D102">
-        <f>IF(MOD(A101,10),_xlfn.FLOOR.MATH(D101*0.99),D101+10)</f>
-        <v>244</v>
-      </c>
-      <c r="E102">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <f t="shared" si="3"/>
-        <v>103</v>
-      </c>
-      <c r="B103">
-        <f t="shared" si="4"/>
-        <v>152</v>
-      </c>
-      <c r="C103">
-        <f t="shared" si="5"/>
-        <v>1520</v>
-      </c>
-      <c r="D103">
-        <f>IF(MOD(A102,10),_xlfn.FLOOR.MATH(D102*0.99),D102+10)</f>
-        <v>241</v>
-      </c>
-      <c r="E103">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <f t="shared" si="3"/>
-        <v>104</v>
-      </c>
-      <c r="B104">
-        <f t="shared" si="4"/>
-        <v>150</v>
-      </c>
-      <c r="C104">
-        <f t="shared" si="5"/>
-        <v>1530</v>
-      </c>
-      <c r="D104">
-        <f>IF(MOD(A103,10),_xlfn.FLOOR.MATH(D103*0.99),D103+10)</f>
-        <v>238</v>
-      </c>
-      <c r="E104">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <f t="shared" si="3"/>
-        <v>105</v>
-      </c>
-      <c r="B105">
-        <f t="shared" si="4"/>
-        <v>148</v>
-      </c>
-      <c r="C105">
-        <f t="shared" si="5"/>
-        <v>1540</v>
-      </c>
-      <c r="D105">
-        <f>IF(MOD(A104,10),_xlfn.FLOOR.MATH(D104*0.99),D104+10)</f>
-        <v>235</v>
-      </c>
-      <c r="E105">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <f t="shared" si="3"/>
-        <v>106</v>
-      </c>
-      <c r="B106">
-        <f t="shared" si="4"/>
-        <v>146</v>
-      </c>
-      <c r="C106">
-        <f t="shared" si="5"/>
-        <v>1550</v>
-      </c>
-      <c r="D106">
-        <f>IF(MOD(A105,10),_xlfn.FLOOR.MATH(D105*0.99),D105+10)</f>
-        <v>232</v>
-      </c>
-      <c r="E106">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <f t="shared" si="3"/>
-        <v>107</v>
-      </c>
-      <c r="B107">
-        <f t="shared" si="4"/>
-        <v>144</v>
-      </c>
-      <c r="C107">
-        <f t="shared" si="5"/>
-        <v>1560</v>
-      </c>
-      <c r="D107">
-        <f>IF(MOD(A106,10),_xlfn.FLOOR.MATH(D106*0.99),D106+10)</f>
-        <v>229</v>
-      </c>
-      <c r="E107">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <f t="shared" si="3"/>
-        <v>108</v>
-      </c>
-      <c r="B108">
-        <f t="shared" si="4"/>
-        <v>142</v>
-      </c>
-      <c r="C108">
-        <f t="shared" si="5"/>
-        <v>1570</v>
-      </c>
-      <c r="D108">
-        <f>IF(MOD(A107,10),_xlfn.FLOOR.MATH(D107*0.99),D107+10)</f>
-        <v>226</v>
-      </c>
-      <c r="E108">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <f t="shared" si="3"/>
-        <v>109</v>
-      </c>
-      <c r="B109">
-        <f t="shared" si="4"/>
-        <v>140</v>
-      </c>
-      <c r="C109">
-        <f t="shared" si="5"/>
-        <v>1580</v>
-      </c>
-      <c r="D109">
-        <f>IF(MOD(A108,10),_xlfn.FLOOR.MATH(D108*0.99),D108+10)</f>
-        <v>223</v>
-      </c>
-      <c r="E109">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <f t="shared" si="3"/>
-        <v>110</v>
-      </c>
-      <c r="B110">
-        <f t="shared" si="4"/>
-        <v>138</v>
-      </c>
-      <c r="C110">
-        <f t="shared" si="5"/>
-        <v>1590</v>
-      </c>
-      <c r="D110">
-        <f>IF(MOD(A109,10),_xlfn.FLOOR.MATH(D109*0.99),D109+10)</f>
-        <v>220</v>
-      </c>
-      <c r="E110">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <f t="shared" si="3"/>
-        <v>111</v>
-      </c>
-      <c r="B111">
-        <f t="shared" si="4"/>
-        <v>136</v>
-      </c>
-      <c r="C111">
-        <f t="shared" si="5"/>
-        <v>1600</v>
-      </c>
-      <c r="D111">
-        <f>IF(MOD(A110,10),_xlfn.FLOOR.MATH(D110*0.99),D110+10)</f>
-        <v>230</v>
-      </c>
-      <c r="E111">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <f t="shared" si="3"/>
-        <v>112</v>
-      </c>
-      <c r="B112">
-        <f t="shared" si="4"/>
-        <v>134</v>
-      </c>
-      <c r="C112">
-        <f t="shared" si="5"/>
-        <v>1610</v>
-      </c>
-      <c r="D112">
-        <f>IF(MOD(A111,10),_xlfn.FLOOR.MATH(D111*0.99),D111+10)</f>
-        <v>227</v>
-      </c>
-      <c r="E112">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <f t="shared" si="3"/>
-        <v>113</v>
-      </c>
-      <c r="B113">
-        <f t="shared" si="4"/>
-        <v>132</v>
-      </c>
-      <c r="C113">
-        <f t="shared" si="5"/>
-        <v>1620</v>
-      </c>
-      <c r="D113">
-        <f>IF(MOD(A112,10),_xlfn.FLOOR.MATH(D112*0.99),D112+10)</f>
-        <v>224</v>
-      </c>
-      <c r="E113">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <f t="shared" si="3"/>
-        <v>114</v>
-      </c>
-      <c r="B114">
-        <f t="shared" si="4"/>
-        <v>130</v>
-      </c>
-      <c r="C114">
-        <f t="shared" si="5"/>
-        <v>1630</v>
-      </c>
-      <c r="D114">
-        <f>IF(MOD(A113,10),_xlfn.FLOOR.MATH(D113*0.99),D113+10)</f>
-        <v>221</v>
-      </c>
-      <c r="E114">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <f t="shared" si="3"/>
-        <v>115</v>
-      </c>
-      <c r="B115">
-        <f t="shared" si="4"/>
-        <v>128</v>
-      </c>
-      <c r="C115">
-        <f t="shared" si="5"/>
-        <v>1640</v>
-      </c>
-      <c r="D115">
-        <f>IF(MOD(A114,10),_xlfn.FLOOR.MATH(D114*0.99),D114+10)</f>
-        <v>218</v>
-      </c>
-      <c r="E115">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <f t="shared" si="3"/>
-        <v>116</v>
-      </c>
-      <c r="B116">
-        <f t="shared" si="4"/>
-        <v>126</v>
-      </c>
-      <c r="C116">
-        <f t="shared" si="5"/>
-        <v>1650</v>
-      </c>
-      <c r="D116">
-        <f>IF(MOD(A115,10),_xlfn.FLOOR.MATH(D115*0.99),D115+10)</f>
-        <v>215</v>
-      </c>
-      <c r="E116">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <f t="shared" si="3"/>
-        <v>117</v>
-      </c>
-      <c r="B117">
-        <f t="shared" si="4"/>
-        <v>124</v>
-      </c>
-      <c r="C117">
-        <f t="shared" si="5"/>
-        <v>1660</v>
-      </c>
-      <c r="D117">
-        <f>IF(MOD(A116,10),_xlfn.FLOOR.MATH(D116*0.99),D116+10)</f>
-        <v>212</v>
-      </c>
-      <c r="E117">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <f t="shared" si="3"/>
-        <v>118</v>
-      </c>
-      <c r="B118">
-        <f t="shared" si="4"/>
-        <v>122</v>
-      </c>
-      <c r="C118">
-        <f t="shared" si="5"/>
-        <v>1670</v>
-      </c>
-      <c r="D118">
-        <f>IF(MOD(A117,10),_xlfn.FLOOR.MATH(D117*0.99),D117+10)</f>
-        <v>209</v>
-      </c>
-      <c r="E118">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <f t="shared" si="3"/>
-        <v>119</v>
-      </c>
-      <c r="B119">
-        <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-      <c r="D119">
-        <f>IF(MOD(A118,10),_xlfn.FLOOR.MATH(D118*0.99),D118+10)</f>
-        <v>206</v>
-      </c>
-      <c r="E119">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-      <c r="B120">
-        <f t="shared" si="4"/>
-        <v>118</v>
-      </c>
-      <c r="D120">
-        <f>IF(MOD(A119,10),_xlfn.FLOOR.MATH(D119*0.99),D119+10)</f>
-        <v>203</v>
-      </c>
-      <c r="E120">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <f t="shared" si="3"/>
-        <v>121</v>
-      </c>
-      <c r="B121">
-        <f t="shared" si="4"/>
-        <v>116</v>
-      </c>
-      <c r="D121">
-        <f>IF(MOD(A120,10),_xlfn.FLOOR.MATH(D120*0.99),D120+10)</f>
-        <v>213</v>
-      </c>
-      <c r="E121">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <f t="shared" si="3"/>
-        <v>122</v>
-      </c>
-      <c r="B122">
-        <f t="shared" si="4"/>
-        <v>114</v>
-      </c>
-      <c r="D122">
-        <f>IF(MOD(A121,10),_xlfn.FLOOR.MATH(D121*0.99),D121+10)</f>
-        <v>210</v>
-      </c>
-      <c r="E122">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <f t="shared" si="3"/>
-        <v>123</v>
-      </c>
-      <c r="B123">
-        <f t="shared" si="4"/>
-        <v>112</v>
-      </c>
-      <c r="D123">
-        <f>IF(MOD(A122,10),_xlfn.FLOOR.MATH(D122*0.99),D122+10)</f>
-        <v>207</v>
-      </c>
-      <c r="E123">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <f t="shared" si="3"/>
-        <v>124</v>
-      </c>
-      <c r="B124">
-        <f t="shared" si="4"/>
-        <v>110</v>
-      </c>
-      <c r="D124">
-        <f>IF(MOD(A123,10),_xlfn.FLOOR.MATH(D123*0.99),D123+10)</f>
-        <v>204</v>
-      </c>
-      <c r="E124">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <f t="shared" si="3"/>
-        <v>125</v>
-      </c>
-      <c r="B125">
-        <f t="shared" si="4"/>
-        <v>108</v>
-      </c>
-      <c r="D125">
-        <f>IF(MOD(A124,10),_xlfn.FLOOR.MATH(D124*0.99),D124+10)</f>
-        <v>201</v>
-      </c>
-      <c r="E125">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <f t="shared" si="3"/>
-        <v>126</v>
-      </c>
-      <c r="B126">
-        <f t="shared" si="4"/>
-        <v>106</v>
-      </c>
-      <c r="D126">
-        <f>IF(MOD(A125,10),_xlfn.FLOOR.MATH(D125*0.99),D125+10)</f>
-        <v>198</v>
-      </c>
-      <c r="E126">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <f t="shared" si="3"/>
-        <v>127</v>
-      </c>
-      <c r="B127">
-        <f t="shared" si="4"/>
-        <v>104</v>
-      </c>
-      <c r="D127">
-        <f>IF(MOD(A126,10),_xlfn.FLOOR.MATH(D126*0.99),D126+10)</f>
-        <v>196</v>
-      </c>
-      <c r="E127">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <f t="shared" si="3"/>
-        <v>128</v>
-      </c>
-      <c r="B128">
-        <f t="shared" si="4"/>
-        <v>102</v>
-      </c>
-      <c r="D128">
-        <f>IF(MOD(A127,10),_xlfn.FLOOR.MATH(D127*0.99),D127+10)</f>
-        <v>194</v>
-      </c>
-      <c r="E128">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <f t="shared" si="3"/>
-        <v>129</v>
-      </c>
-      <c r="B129">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="D129">
-        <f>IF(MOD(A128,10),_xlfn.FLOOR.MATH(D128*0.99),D128+10)</f>
-        <v>192</v>
-      </c>
       <c r="E129">
         <v>40</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>130</v>
       </c>
       <c r="B130">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>99</v>
       </c>
       <c r="D130">
-        <f>IF(MOD(A129,10),_xlfn.FLOOR.MATH(D129*0.99),D129+10)</f>
+        <f t="shared" ref="D130:D193" si="8">IF(MOD(A129,10),_xlfn.FLOOR.MATH(D129*0.99),D129+10)</f>
         <v>190</v>
       </c>
       <c r="E130">
@@ -11809,15 +11944,15 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
-        <f t="shared" ref="A131:A194" si="6">A130 + 1</f>
+        <f t="shared" ref="A131:A194" si="9">A130 + 1</f>
         <v>131</v>
       </c>
       <c r="B131">
-        <f t="shared" ref="B131:B194" si="7">_xlfn.FLOOR.MATH(B130*0.99)</f>
+        <f t="shared" ref="B131:B194" si="10">_xlfn.FLOOR.MATH(B130*0.99)</f>
         <v>98</v>
       </c>
       <c r="D131">
-        <f>IF(MOD(A130,10),_xlfn.FLOOR.MATH(D130*0.99),D130+10)</f>
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
       <c r="E131">
@@ -11826,15 +11961,15 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>132</v>
       </c>
       <c r="B132">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>97</v>
       </c>
       <c r="D132">
-        <f>IF(MOD(A131,10),_xlfn.FLOOR.MATH(D131*0.99),D131+10)</f>
+        <f t="shared" si="8"/>
         <v>198</v>
       </c>
       <c r="E132">
@@ -11843,15 +11978,15 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>133</v>
       </c>
       <c r="B133">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>96</v>
       </c>
       <c r="D133">
-        <f>IF(MOD(A132,10),_xlfn.FLOOR.MATH(D132*0.99),D132+10)</f>
+        <f t="shared" si="8"/>
         <v>196</v>
       </c>
       <c r="E133">
@@ -11860,15 +11995,15 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>134</v>
       </c>
       <c r="B134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>95</v>
       </c>
       <c r="D134">
-        <f>IF(MOD(A133,10),_xlfn.FLOOR.MATH(D133*0.99),D133+10)</f>
+        <f t="shared" si="8"/>
         <v>194</v>
       </c>
       <c r="E134">
@@ -11877,15 +12012,15 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>135</v>
       </c>
       <c r="B135">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>94</v>
       </c>
       <c r="D135">
-        <f>IF(MOD(A134,10),_xlfn.FLOOR.MATH(D134*0.99),D134+10)</f>
+        <f t="shared" si="8"/>
         <v>192</v>
       </c>
       <c r="E135">
@@ -11894,15 +12029,15 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>136</v>
       </c>
       <c r="B136">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>93</v>
       </c>
       <c r="D136">
-        <f>IF(MOD(A135,10),_xlfn.FLOOR.MATH(D135*0.99),D135+10)</f>
+        <f t="shared" si="8"/>
         <v>190</v>
       </c>
       <c r="E136">
@@ -11911,15 +12046,15 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>137</v>
       </c>
       <c r="B137">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>92</v>
       </c>
       <c r="D137">
-        <f>IF(MOD(A136,10),_xlfn.FLOOR.MATH(D136*0.99),D136+10)</f>
+        <f t="shared" si="8"/>
         <v>188</v>
       </c>
       <c r="E137">
@@ -11928,15 +12063,15 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>138</v>
       </c>
       <c r="B138">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>91</v>
       </c>
       <c r="D138">
-        <f>IF(MOD(A137,10),_xlfn.FLOOR.MATH(D137*0.99),D137+10)</f>
+        <f t="shared" si="8"/>
         <v>186</v>
       </c>
       <c r="E138">
@@ -11945,15 +12080,15 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>139</v>
       </c>
       <c r="B139">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>90</v>
       </c>
       <c r="D139">
-        <f>IF(MOD(A138,10),_xlfn.FLOOR.MATH(D138*0.99),D138+10)</f>
+        <f t="shared" si="8"/>
         <v>184</v>
       </c>
       <c r="E139">
@@ -11962,15 +12097,15 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>140</v>
       </c>
       <c r="B140">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>89</v>
       </c>
       <c r="D140">
-        <f>IF(MOD(A139,10),_xlfn.FLOOR.MATH(D139*0.99),D139+10)</f>
+        <f t="shared" si="8"/>
         <v>182</v>
       </c>
       <c r="E140">
@@ -11979,15 +12114,15 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>141</v>
       </c>
       <c r="B141">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>88</v>
       </c>
       <c r="D141">
-        <f>IF(MOD(A140,10),_xlfn.FLOOR.MATH(D140*0.99),D140+10)</f>
+        <f t="shared" si="8"/>
         <v>192</v>
       </c>
       <c r="E141">
@@ -11996,15 +12131,15 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>142</v>
       </c>
       <c r="B142">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>87</v>
       </c>
       <c r="D142">
-        <f>IF(MOD(A141,10),_xlfn.FLOOR.MATH(D141*0.99),D141+10)</f>
+        <f t="shared" si="8"/>
         <v>190</v>
       </c>
       <c r="E142">
@@ -12013,15 +12148,15 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>143</v>
       </c>
       <c r="B143">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>86</v>
       </c>
       <c r="D143">
-        <f>IF(MOD(A142,10),_xlfn.FLOOR.MATH(D142*0.99),D142+10)</f>
+        <f t="shared" si="8"/>
         <v>188</v>
       </c>
       <c r="E143">
@@ -12030,15 +12165,15 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>144</v>
       </c>
       <c r="B144">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>85</v>
       </c>
       <c r="D144">
-        <f>IF(MOD(A143,10),_xlfn.FLOOR.MATH(D143*0.99),D143+10)</f>
+        <f t="shared" si="8"/>
         <v>186</v>
       </c>
       <c r="E144">
@@ -12047,15 +12182,15 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>145</v>
       </c>
       <c r="B145">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>84</v>
       </c>
       <c r="D145">
-        <f>IF(MOD(A144,10),_xlfn.FLOOR.MATH(D144*0.99),D144+10)</f>
+        <f t="shared" si="8"/>
         <v>184</v>
       </c>
       <c r="E145">
@@ -12064,15 +12199,15 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>146</v>
       </c>
       <c r="B146">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>83</v>
       </c>
       <c r="D146">
-        <f>IF(MOD(A145,10),_xlfn.FLOOR.MATH(D145*0.99),D145+10)</f>
+        <f t="shared" si="8"/>
         <v>182</v>
       </c>
       <c r="E146">
@@ -12081,15 +12216,15 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>147</v>
       </c>
       <c r="B147">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>82</v>
       </c>
       <c r="D147">
-        <f>IF(MOD(A146,10),_xlfn.FLOOR.MATH(D146*0.99),D146+10)</f>
+        <f t="shared" si="8"/>
         <v>180</v>
       </c>
       <c r="E147">
@@ -12098,15 +12233,15 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>148</v>
       </c>
       <c r="B148">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>81</v>
       </c>
       <c r="D148">
-        <f>IF(MOD(A147,10),_xlfn.FLOOR.MATH(D147*0.99),D147+10)</f>
+        <f t="shared" si="8"/>
         <v>178</v>
       </c>
       <c r="E148">
@@ -12115,15 +12250,15 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>149</v>
       </c>
       <c r="B149">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>80</v>
       </c>
       <c r="D149">
-        <f>IF(MOD(A148,10),_xlfn.FLOOR.MATH(D148*0.99),D148+10)</f>
+        <f t="shared" si="8"/>
         <v>176</v>
       </c>
       <c r="E149">
@@ -12132,15 +12267,15 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>150</v>
       </c>
       <c r="B150">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>79</v>
       </c>
       <c r="D150">
-        <f>IF(MOD(A149,10),_xlfn.FLOOR.MATH(D149*0.99),D149+10)</f>
+        <f t="shared" si="8"/>
         <v>174</v>
       </c>
       <c r="E150">
@@ -12149,15 +12284,15 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>151</v>
       </c>
       <c r="B151">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>78</v>
       </c>
       <c r="D151">
-        <f>IF(MOD(A150,10),_xlfn.FLOOR.MATH(D150*0.99),D150+10)</f>
+        <f t="shared" si="8"/>
         <v>184</v>
       </c>
       <c r="E151">
@@ -12166,15 +12301,15 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>152</v>
       </c>
       <c r="B152">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>77</v>
       </c>
       <c r="D152">
-        <f>IF(MOD(A151,10),_xlfn.FLOOR.MATH(D151*0.99),D151+10)</f>
+        <f t="shared" si="8"/>
         <v>182</v>
       </c>
       <c r="E152">
@@ -12183,15 +12318,15 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>153</v>
       </c>
       <c r="B153">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>76</v>
       </c>
       <c r="D153">
-        <f>IF(MOD(A152,10),_xlfn.FLOOR.MATH(D152*0.99),D152+10)</f>
+        <f t="shared" si="8"/>
         <v>180</v>
       </c>
       <c r="E153">
@@ -12200,15 +12335,15 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>154</v>
       </c>
       <c r="B154">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>75</v>
       </c>
       <c r="D154">
-        <f>IF(MOD(A153,10),_xlfn.FLOOR.MATH(D153*0.99),D153+10)</f>
+        <f t="shared" si="8"/>
         <v>178</v>
       </c>
       <c r="E154">
@@ -12217,15 +12352,15 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>155</v>
       </c>
       <c r="B155">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>74</v>
       </c>
       <c r="D155">
-        <f>IF(MOD(A154,10),_xlfn.FLOOR.MATH(D154*0.99),D154+10)</f>
+        <f t="shared" si="8"/>
         <v>176</v>
       </c>
       <c r="E155">
@@ -12234,15 +12369,15 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>156</v>
       </c>
       <c r="B156">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>73</v>
       </c>
       <c r="D156">
-        <f>IF(MOD(A155,10),_xlfn.FLOOR.MATH(D155*0.99),D155+10)</f>
+        <f t="shared" si="8"/>
         <v>174</v>
       </c>
       <c r="E156">
@@ -12251,15 +12386,15 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>157</v>
       </c>
       <c r="B157">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>72</v>
       </c>
       <c r="D157">
-        <f>IF(MOD(A156,10),_xlfn.FLOOR.MATH(D156*0.99),D156+10)</f>
+        <f t="shared" si="8"/>
         <v>172</v>
       </c>
       <c r="E157">
@@ -12268,15 +12403,15 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>158</v>
       </c>
       <c r="B158">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>71</v>
       </c>
       <c r="D158">
-        <f>IF(MOD(A157,10),_xlfn.FLOOR.MATH(D157*0.99),D157+10)</f>
+        <f t="shared" si="8"/>
         <v>170</v>
       </c>
       <c r="E158">
@@ -12285,15 +12420,15 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>159</v>
       </c>
       <c r="B159">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>70</v>
       </c>
       <c r="D159">
-        <f>IF(MOD(A158,10),_xlfn.FLOOR.MATH(D158*0.99),D158+10)</f>
+        <f t="shared" si="8"/>
         <v>168</v>
       </c>
       <c r="E159">
@@ -12302,15 +12437,15 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>160</v>
       </c>
       <c r="B160">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>69</v>
       </c>
       <c r="D160">
-        <f>IF(MOD(A159,10),_xlfn.FLOOR.MATH(D159*0.99),D159+10)</f>
+        <f t="shared" si="8"/>
         <v>166</v>
       </c>
       <c r="E160">
@@ -12319,15 +12454,15 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>161</v>
       </c>
       <c r="B161">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>68</v>
       </c>
       <c r="D161">
-        <f>IF(MOD(A160,10),_xlfn.FLOOR.MATH(D160*0.99),D160+10)</f>
+        <f t="shared" si="8"/>
         <v>176</v>
       </c>
       <c r="E161">
@@ -12336,15 +12471,15 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>162</v>
       </c>
       <c r="B162">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>67</v>
       </c>
       <c r="D162">
-        <f>IF(MOD(A161,10),_xlfn.FLOOR.MATH(D161*0.99),D161+10)</f>
+        <f t="shared" si="8"/>
         <v>174</v>
       </c>
       <c r="E162">
@@ -12353,15 +12488,15 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>163</v>
       </c>
       <c r="B163">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>66</v>
       </c>
       <c r="D163">
-        <f>IF(MOD(A162,10),_xlfn.FLOOR.MATH(D162*0.99),D162+10)</f>
+        <f t="shared" si="8"/>
         <v>172</v>
       </c>
       <c r="E163">
@@ -12370,15 +12505,15 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>164</v>
       </c>
       <c r="B164">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>65</v>
       </c>
       <c r="D164">
-        <f>IF(MOD(A163,10),_xlfn.FLOOR.MATH(D163*0.99),D163+10)</f>
+        <f t="shared" si="8"/>
         <v>170</v>
       </c>
       <c r="E164">
@@ -12387,15 +12522,15 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>165</v>
       </c>
       <c r="B165">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>64</v>
       </c>
       <c r="D165">
-        <f>IF(MOD(A164,10),_xlfn.FLOOR.MATH(D164*0.99),D164+10)</f>
+        <f t="shared" si="8"/>
         <v>168</v>
       </c>
       <c r="E165">
@@ -12404,15 +12539,15 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>166</v>
       </c>
       <c r="B166">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>63</v>
       </c>
       <c r="D166">
-        <f>IF(MOD(A165,10),_xlfn.FLOOR.MATH(D165*0.99),D165+10)</f>
+        <f t="shared" si="8"/>
         <v>166</v>
       </c>
       <c r="E166">
@@ -12421,15 +12556,15 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>167</v>
       </c>
       <c r="B167">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>62</v>
       </c>
       <c r="D167">
-        <f>IF(MOD(A166,10),_xlfn.FLOOR.MATH(D166*0.99),D166+10)</f>
+        <f t="shared" si="8"/>
         <v>164</v>
       </c>
       <c r="E167">
@@ -12438,15 +12573,15 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>168</v>
       </c>
       <c r="B168">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>61</v>
       </c>
       <c r="D168">
-        <f>IF(MOD(A167,10),_xlfn.FLOOR.MATH(D167*0.99),D167+10)</f>
+        <f t="shared" si="8"/>
         <v>162</v>
       </c>
       <c r="E168">
@@ -12455,15 +12590,15 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>169</v>
       </c>
       <c r="B169">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
       <c r="D169">
-        <f>IF(MOD(A168,10),_xlfn.FLOOR.MATH(D168*0.99),D168+10)</f>
+        <f t="shared" si="8"/>
         <v>160</v>
       </c>
       <c r="E169">
@@ -12472,15 +12607,15 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>170</v>
       </c>
       <c r="B170">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>59</v>
       </c>
       <c r="D170">
-        <f>IF(MOD(A169,10),_xlfn.FLOOR.MATH(D169*0.99),D169+10)</f>
+        <f t="shared" si="8"/>
         <v>158</v>
       </c>
       <c r="E170">
@@ -12489,15 +12624,15 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>171</v>
       </c>
       <c r="B171">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>58</v>
       </c>
       <c r="D171">
-        <f>IF(MOD(A170,10),_xlfn.FLOOR.MATH(D170*0.99),D170+10)</f>
+        <f t="shared" si="8"/>
         <v>168</v>
       </c>
       <c r="E171">
@@ -12506,15 +12641,15 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>172</v>
       </c>
       <c r="B172">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>57</v>
       </c>
       <c r="D172">
-        <f>IF(MOD(A171,10),_xlfn.FLOOR.MATH(D171*0.99),D171+10)</f>
+        <f t="shared" si="8"/>
         <v>166</v>
       </c>
       <c r="E172">
@@ -12523,15 +12658,15 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>173</v>
       </c>
       <c r="B173">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>56</v>
       </c>
       <c r="D173">
-        <f>IF(MOD(A172,10),_xlfn.FLOOR.MATH(D172*0.99),D172+10)</f>
+        <f t="shared" si="8"/>
         <v>164</v>
       </c>
       <c r="E173">
@@ -12540,15 +12675,15 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>174</v>
       </c>
       <c r="B174">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>55</v>
       </c>
       <c r="D174">
-        <f>IF(MOD(A173,10),_xlfn.FLOOR.MATH(D173*0.99),D173+10)</f>
+        <f t="shared" si="8"/>
         <v>162</v>
       </c>
       <c r="E174">
@@ -12557,15 +12692,15 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>175</v>
       </c>
       <c r="B175">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>54</v>
       </c>
       <c r="D175">
-        <f>IF(MOD(A174,10),_xlfn.FLOOR.MATH(D174*0.99),D174+10)</f>
+        <f t="shared" si="8"/>
         <v>160</v>
       </c>
       <c r="E175">
@@ -12574,15 +12709,15 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>176</v>
       </c>
       <c r="B176">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>53</v>
       </c>
       <c r="D176">
-        <f>IF(MOD(A175,10),_xlfn.FLOOR.MATH(D175*0.99),D175+10)</f>
+        <f t="shared" si="8"/>
         <v>158</v>
       </c>
       <c r="E176">
@@ -12591,15 +12726,15 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>177</v>
       </c>
       <c r="B177">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>52</v>
       </c>
       <c r="D177">
-        <f>IF(MOD(A176,10),_xlfn.FLOOR.MATH(D176*0.99),D176+10)</f>
+        <f t="shared" si="8"/>
         <v>156</v>
       </c>
       <c r="E177">
@@ -12608,15 +12743,15 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>178</v>
       </c>
       <c r="B178">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>51</v>
       </c>
       <c r="D178">
-        <f>IF(MOD(A177,10),_xlfn.FLOOR.MATH(D177*0.99),D177+10)</f>
+        <f t="shared" si="8"/>
         <v>154</v>
       </c>
       <c r="E178">
@@ -12625,15 +12760,15 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>179</v>
       </c>
       <c r="B179">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
       <c r="D179">
-        <f>IF(MOD(A178,10),_xlfn.FLOOR.MATH(D178*0.99),D178+10)</f>
+        <f t="shared" si="8"/>
         <v>152</v>
       </c>
       <c r="E179">
@@ -12642,15 +12777,15 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>180</v>
       </c>
       <c r="B180">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>49</v>
       </c>
       <c r="D180">
-        <f>IF(MOD(A179,10),_xlfn.FLOOR.MATH(D179*0.99),D179+10)</f>
+        <f t="shared" si="8"/>
         <v>150</v>
       </c>
       <c r="E180">
@@ -12659,15 +12794,15 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>181</v>
       </c>
       <c r="B181">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>48</v>
       </c>
       <c r="D181">
-        <f>IF(MOD(A180,10),_xlfn.FLOOR.MATH(D180*0.99),D180+10)</f>
+        <f t="shared" si="8"/>
         <v>160</v>
       </c>
       <c r="E181">
@@ -12676,15 +12811,15 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>182</v>
       </c>
       <c r="B182">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>47</v>
       </c>
       <c r="D182">
-        <f>IF(MOD(A181,10),_xlfn.FLOOR.MATH(D181*0.99),D181+10)</f>
+        <f t="shared" si="8"/>
         <v>158</v>
       </c>
       <c r="E182">
@@ -12693,15 +12828,15 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>183</v>
       </c>
       <c r="B183">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>46</v>
       </c>
       <c r="D183">
-        <f>IF(MOD(A182,10),_xlfn.FLOOR.MATH(D182*0.99),D182+10)</f>
+        <f t="shared" si="8"/>
         <v>156</v>
       </c>
       <c r="E183">
@@ -12710,15 +12845,15 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>184</v>
       </c>
       <c r="B184">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>45</v>
       </c>
       <c r="D184">
-        <f>IF(MOD(A183,10),_xlfn.FLOOR.MATH(D183*0.99),D183+10)</f>
+        <f t="shared" si="8"/>
         <v>154</v>
       </c>
       <c r="E184">
@@ -12727,15 +12862,15 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>185</v>
       </c>
       <c r="B185">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>44</v>
       </c>
       <c r="D185">
-        <f>IF(MOD(A184,10),_xlfn.FLOOR.MATH(D184*0.99),D184+10)</f>
+        <f t="shared" si="8"/>
         <v>152</v>
       </c>
       <c r="E185">
@@ -12744,15 +12879,15 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>186</v>
       </c>
       <c r="B186">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>43</v>
       </c>
       <c r="D186">
-        <f>IF(MOD(A185,10),_xlfn.FLOOR.MATH(D185*0.99),D185+10)</f>
+        <f t="shared" si="8"/>
         <v>150</v>
       </c>
       <c r="E186">
@@ -12761,15 +12896,15 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>187</v>
       </c>
       <c r="B187">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>42</v>
       </c>
       <c r="D187">
-        <f>IF(MOD(A186,10),_xlfn.FLOOR.MATH(D186*0.99),D186+10)</f>
+        <f t="shared" si="8"/>
         <v>148</v>
       </c>
       <c r="E187">
@@ -12778,15 +12913,15 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>188</v>
       </c>
       <c r="B188">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>41</v>
       </c>
       <c r="D188">
-        <f>IF(MOD(A187,10),_xlfn.FLOOR.MATH(D187*0.99),D187+10)</f>
+        <f t="shared" si="8"/>
         <v>146</v>
       </c>
       <c r="E188">
@@ -12795,15 +12930,15 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>189</v>
       </c>
       <c r="B189">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
       <c r="D189">
-        <f>IF(MOD(A188,10),_xlfn.FLOOR.MATH(D188*0.99),D188+10)</f>
+        <f t="shared" si="8"/>
         <v>144</v>
       </c>
       <c r="E189">
@@ -12812,15 +12947,15 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>190</v>
       </c>
       <c r="B190">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>39</v>
       </c>
       <c r="D190">
-        <f>IF(MOD(A189,10),_xlfn.FLOOR.MATH(D189*0.99),D189+10)</f>
+        <f t="shared" si="8"/>
         <v>142</v>
       </c>
       <c r="E190">
@@ -12829,15 +12964,15 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>191</v>
       </c>
       <c r="B191">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>38</v>
       </c>
       <c r="D191">
-        <f>IF(MOD(A190,10),_xlfn.FLOOR.MATH(D190*0.99),D190+10)</f>
+        <f t="shared" si="8"/>
         <v>152</v>
       </c>
       <c r="E191">
@@ -12846,15 +12981,15 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>192</v>
       </c>
       <c r="B192">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>37</v>
       </c>
       <c r="D192">
-        <f>IF(MOD(A191,10),_xlfn.FLOOR.MATH(D191*0.99),D191+10)</f>
+        <f t="shared" si="8"/>
         <v>150</v>
       </c>
       <c r="E192">
@@ -12863,15 +12998,15 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>193</v>
       </c>
       <c r="B193">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
       <c r="D193">
-        <f>IF(MOD(A192,10),_xlfn.FLOOR.MATH(D192*0.99),D192+10)</f>
+        <f t="shared" si="8"/>
         <v>148</v>
       </c>
       <c r="E193">
@@ -12880,15 +13015,15 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>194</v>
       </c>
       <c r="B194">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>35</v>
       </c>
       <c r="D194">
-        <f>IF(MOD(A193,10),_xlfn.FLOOR.MATH(D193*0.99),D193+10)</f>
+        <f t="shared" ref="D194:D257" si="11">IF(MOD(A193,10),_xlfn.FLOOR.MATH(D193*0.99),D193+10)</f>
         <v>146</v>
       </c>
       <c r="E194">
@@ -12897,15 +13032,15 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
-        <f t="shared" ref="A195:A258" si="8">A194 + 1</f>
+        <f t="shared" ref="A195:A258" si="12">A194 + 1</f>
         <v>195</v>
       </c>
       <c r="B195">
-        <f t="shared" ref="B195:B258" si="9">_xlfn.FLOOR.MATH(B194*0.99)</f>
+        <f t="shared" ref="B195:B258" si="13">_xlfn.FLOOR.MATH(B194*0.99)</f>
         <v>34</v>
       </c>
       <c r="D195">
-        <f>IF(MOD(A194,10),_xlfn.FLOOR.MATH(D194*0.99),D194+10)</f>
+        <f t="shared" si="11"/>
         <v>144</v>
       </c>
       <c r="E195">
@@ -12914,15 +13049,15 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>196</v>
       </c>
       <c r="B196">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>33</v>
       </c>
       <c r="D196">
-        <f>IF(MOD(A195,10),_xlfn.FLOOR.MATH(D195*0.99),D195+10)</f>
+        <f t="shared" si="11"/>
         <v>142</v>
       </c>
       <c r="E196">
@@ -12931,15 +13066,15 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>197</v>
       </c>
       <c r="B197">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>32</v>
       </c>
       <c r="D197">
-        <f>IF(MOD(A196,10),_xlfn.FLOOR.MATH(D196*0.99),D196+10)</f>
+        <f t="shared" si="11"/>
         <v>140</v>
       </c>
       <c r="E197">
@@ -12948,15 +13083,15 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>198</v>
       </c>
       <c r="B198">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>31</v>
       </c>
       <c r="D198">
-        <f>IF(MOD(A197,10),_xlfn.FLOOR.MATH(D197*0.99),D197+10)</f>
+        <f t="shared" si="11"/>
         <v>138</v>
       </c>
       <c r="E198">
@@ -12965,15 +13100,15 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>199</v>
       </c>
       <c r="B199">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="D199">
-        <f>IF(MOD(A198,10),_xlfn.FLOOR.MATH(D198*0.99),D198+10)</f>
+        <f t="shared" si="11"/>
         <v>136</v>
       </c>
       <c r="E199">
@@ -12982,15 +13117,15 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
       <c r="B200">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>29</v>
       </c>
       <c r="D200">
-        <f>IF(MOD(A199,10),_xlfn.FLOOR.MATH(D199*0.99),D199+10)</f>
+        <f t="shared" si="11"/>
         <v>134</v>
       </c>
       <c r="E200">
@@ -12999,15 +13134,15 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>201</v>
       </c>
       <c r="B201">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="D201">
-        <f>IF(MOD(A200,10),_xlfn.FLOOR.MATH(D200*0.99),D200+10)</f>
+        <f t="shared" si="11"/>
         <v>144</v>
       </c>
       <c r="E201">
@@ -13016,15 +13151,15 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>202</v>
       </c>
       <c r="B202">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>27</v>
       </c>
       <c r="D202">
-        <f>IF(MOD(A201,10),_xlfn.FLOOR.MATH(D201*0.99),D201+10)</f>
+        <f t="shared" si="11"/>
         <v>142</v>
       </c>
       <c r="E202">
@@ -13033,15 +13168,15 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>203</v>
       </c>
       <c r="B203">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>26</v>
       </c>
       <c r="D203">
-        <f>IF(MOD(A202,10),_xlfn.FLOOR.MATH(D202*0.99),D202+10)</f>
+        <f t="shared" si="11"/>
         <v>140</v>
       </c>
       <c r="E203">
@@ -13050,15 +13185,15 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>204</v>
       </c>
       <c r="B204">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>25</v>
       </c>
       <c r="D204">
-        <f>IF(MOD(A203,10),_xlfn.FLOOR.MATH(D203*0.99),D203+10)</f>
+        <f t="shared" si="11"/>
         <v>138</v>
       </c>
       <c r="E204">
@@ -13067,15 +13202,15 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>205</v>
       </c>
       <c r="B205">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>24</v>
       </c>
       <c r="D205">
-        <f>IF(MOD(A204,10),_xlfn.FLOOR.MATH(D204*0.99),D204+10)</f>
+        <f t="shared" si="11"/>
         <v>136</v>
       </c>
       <c r="E205">
@@ -13084,15 +13219,15 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>206</v>
       </c>
       <c r="B206">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>23</v>
       </c>
       <c r="D206">
-        <f>IF(MOD(A205,10),_xlfn.FLOOR.MATH(D205*0.99),D205+10)</f>
+        <f t="shared" si="11"/>
         <v>134</v>
       </c>
       <c r="E206">
@@ -13101,15 +13236,15 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>207</v>
       </c>
       <c r="B207">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>22</v>
       </c>
       <c r="D207">
-        <f>IF(MOD(A206,10),_xlfn.FLOOR.MATH(D206*0.99),D206+10)</f>
+        <f t="shared" si="11"/>
         <v>132</v>
       </c>
       <c r="E207">
@@ -13118,15 +13253,15 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>208</v>
       </c>
       <c r="B208">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="D208">
-        <f>IF(MOD(A207,10),_xlfn.FLOOR.MATH(D207*0.99),D207+10)</f>
+        <f t="shared" si="11"/>
         <v>130</v>
       </c>
       <c r="E208">
@@ -13135,15 +13270,15 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>209</v>
       </c>
       <c r="B209">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="D209">
-        <f>IF(MOD(A208,10),_xlfn.FLOOR.MATH(D208*0.99),D208+10)</f>
+        <f t="shared" si="11"/>
         <v>128</v>
       </c>
       <c r="E209">
@@ -13152,15 +13287,15 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>210</v>
       </c>
       <c r="B210">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>19</v>
       </c>
       <c r="D210">
-        <f>IF(MOD(A209,10),_xlfn.FLOOR.MATH(D209*0.99),D209+10)</f>
+        <f t="shared" si="11"/>
         <v>126</v>
       </c>
       <c r="E210">
@@ -13169,15 +13304,15 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>211</v>
       </c>
       <c r="B211">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="D211">
-        <f>IF(MOD(A210,10),_xlfn.FLOOR.MATH(D210*0.99),D210+10)</f>
+        <f t="shared" si="11"/>
         <v>136</v>
       </c>
       <c r="E211">
@@ -13186,15 +13321,15 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>212</v>
       </c>
       <c r="B212">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="D212">
-        <f>IF(MOD(A211,10),_xlfn.FLOOR.MATH(D211*0.99),D211+10)</f>
+        <f t="shared" si="11"/>
         <v>134</v>
       </c>
       <c r="E212">
@@ -13203,15 +13338,15 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>213</v>
       </c>
       <c r="B213">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="D213">
-        <f>IF(MOD(A212,10),_xlfn.FLOOR.MATH(D212*0.99),D212+10)</f>
+        <f t="shared" si="11"/>
         <v>132</v>
       </c>
       <c r="E213">
@@ -13220,15 +13355,15 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>214</v>
       </c>
       <c r="B214">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="D214">
-        <f>IF(MOD(A213,10),_xlfn.FLOOR.MATH(D213*0.99),D213+10)</f>
+        <f t="shared" si="11"/>
         <v>130</v>
       </c>
       <c r="E214">
@@ -13237,15 +13372,15 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>215</v>
       </c>
       <c r="B215">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="D215">
-        <f>IF(MOD(A214,10),_xlfn.FLOOR.MATH(D214*0.99),D214+10)</f>
+        <f t="shared" si="11"/>
         <v>128</v>
       </c>
       <c r="E215">
@@ -13254,15 +13389,15 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>216</v>
       </c>
       <c r="B216">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="D216">
-        <f>IF(MOD(A215,10),_xlfn.FLOOR.MATH(D215*0.99),D215+10)</f>
+        <f t="shared" si="11"/>
         <v>126</v>
       </c>
       <c r="E216">
@@ -13271,15 +13406,15 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>217</v>
       </c>
       <c r="B217">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="D217">
-        <f>IF(MOD(A216,10),_xlfn.FLOOR.MATH(D216*0.99),D216+10)</f>
+        <f t="shared" si="11"/>
         <v>124</v>
       </c>
       <c r="E217">
@@ -13288,15 +13423,15 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>218</v>
       </c>
       <c r="B218">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="D218">
-        <f>IF(MOD(A217,10),_xlfn.FLOOR.MATH(D217*0.99),D217+10)</f>
+        <f t="shared" si="11"/>
         <v>122</v>
       </c>
       <c r="E218">
@@ -13305,15 +13440,15 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>219</v>
       </c>
       <c r="B219">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="D219">
-        <f>IF(MOD(A218,10),_xlfn.FLOOR.MATH(D218*0.99),D218+10)</f>
+        <f t="shared" si="11"/>
         <v>120</v>
       </c>
       <c r="E219">
@@ -13322,15 +13457,15 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>220</v>
       </c>
       <c r="B220">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="D220">
-        <f>IF(MOD(A219,10),_xlfn.FLOOR.MATH(D219*0.99),D219+10)</f>
+        <f t="shared" si="11"/>
         <v>118</v>
       </c>
       <c r="E220">
@@ -13339,15 +13474,15 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>221</v>
       </c>
       <c r="B221">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="D221">
-        <f>IF(MOD(A220,10),_xlfn.FLOOR.MATH(D220*0.99),D220+10)</f>
+        <f t="shared" si="11"/>
         <v>128</v>
       </c>
       <c r="E221">
@@ -13356,15 +13491,15 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>222</v>
       </c>
       <c r="B222">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="D222">
-        <f>IF(MOD(A221,10),_xlfn.FLOOR.MATH(D221*0.99),D221+10)</f>
+        <f t="shared" si="11"/>
         <v>126</v>
       </c>
       <c r="E222">
@@ -13373,15 +13508,15 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>223</v>
       </c>
       <c r="B223">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="D223">
-        <f>IF(MOD(A222,10),_xlfn.FLOOR.MATH(D222*0.99),D222+10)</f>
+        <f t="shared" si="11"/>
         <v>124</v>
       </c>
       <c r="E223">
@@ -13390,15 +13525,15 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>224</v>
       </c>
       <c r="B224">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="D224">
-        <f>IF(MOD(A223,10),_xlfn.FLOOR.MATH(D223*0.99),D223+10)</f>
+        <f t="shared" si="11"/>
         <v>122</v>
       </c>
       <c r="E224">
@@ -13407,15 +13542,15 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>225</v>
       </c>
       <c r="B225">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="D225">
-        <f>IF(MOD(A224,10),_xlfn.FLOOR.MATH(D224*0.99),D224+10)</f>
+        <f t="shared" si="11"/>
         <v>120</v>
       </c>
       <c r="E225">
@@ -13424,15 +13559,15 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>226</v>
       </c>
       <c r="B226">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="D226">
-        <f>IF(MOD(A225,10),_xlfn.FLOOR.MATH(D225*0.99),D225+10)</f>
+        <f t="shared" si="11"/>
         <v>118</v>
       </c>
       <c r="E226">
@@ -13441,15 +13576,15 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>227</v>
       </c>
       <c r="B227">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="D227">
-        <f>IF(MOD(A226,10),_xlfn.FLOOR.MATH(D226*0.99),D226+10)</f>
+        <f t="shared" si="11"/>
         <v>116</v>
       </c>
       <c r="E227">
@@ -13458,15 +13593,15 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>228</v>
       </c>
       <c r="B228">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="D228">
-        <f>IF(MOD(A227,10),_xlfn.FLOOR.MATH(D227*0.99),D227+10)</f>
+        <f t="shared" si="11"/>
         <v>114</v>
       </c>
       <c r="E228">
@@ -13475,15 +13610,15 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>229</v>
       </c>
       <c r="B229">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D229">
-        <f>IF(MOD(A228,10),_xlfn.FLOOR.MATH(D228*0.99),D228+10)</f>
+        <f t="shared" si="11"/>
         <v>112</v>
       </c>
       <c r="E229">
@@ -13492,15 +13627,15 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>230</v>
       </c>
       <c r="B230">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D230">
-        <f>IF(MOD(A229,10),_xlfn.FLOOR.MATH(D229*0.99),D229+10)</f>
+        <f t="shared" si="11"/>
         <v>110</v>
       </c>
       <c r="E230">
@@ -13509,15 +13644,15 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>231</v>
       </c>
       <c r="B231">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D231">
-        <f>IF(MOD(A230,10),_xlfn.FLOOR.MATH(D230*0.99),D230+10)</f>
+        <f t="shared" si="11"/>
         <v>120</v>
       </c>
       <c r="E231">
@@ -13526,15 +13661,15 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>232</v>
       </c>
       <c r="B232">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D232">
-        <f>IF(MOD(A231,10),_xlfn.FLOOR.MATH(D231*0.99),D231+10)</f>
+        <f t="shared" si="11"/>
         <v>118</v>
       </c>
       <c r="E232">
@@ -13543,15 +13678,15 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>233</v>
       </c>
       <c r="B233">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D233">
-        <f>IF(MOD(A232,10),_xlfn.FLOOR.MATH(D232*0.99),D232+10)</f>
+        <f t="shared" si="11"/>
         <v>116</v>
       </c>
       <c r="E233">
@@ -13560,15 +13695,15 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>234</v>
       </c>
       <c r="B234">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D234">
-        <f>IF(MOD(A233,10),_xlfn.FLOOR.MATH(D233*0.99),D233+10)</f>
+        <f t="shared" si="11"/>
         <v>114</v>
       </c>
       <c r="E234">
@@ -13577,15 +13712,15 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>235</v>
       </c>
       <c r="B235">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D235">
-        <f>IF(MOD(A234,10),_xlfn.FLOOR.MATH(D234*0.99),D234+10)</f>
+        <f t="shared" si="11"/>
         <v>112</v>
       </c>
       <c r="E235">
@@ -13594,15 +13729,15 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>236</v>
       </c>
       <c r="B236">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D236">
-        <f>IF(MOD(A235,10),_xlfn.FLOOR.MATH(D235*0.99),D235+10)</f>
+        <f t="shared" si="11"/>
         <v>110</v>
       </c>
       <c r="E236">
@@ -13611,15 +13746,15 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>237</v>
       </c>
       <c r="B237">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D237">
-        <f>IF(MOD(A236,10),_xlfn.FLOOR.MATH(D236*0.99),D236+10)</f>
+        <f t="shared" si="11"/>
         <v>108</v>
       </c>
       <c r="E237">
@@ -13628,15 +13763,15 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>238</v>
       </c>
       <c r="B238">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D238">
-        <f>IF(MOD(A237,10),_xlfn.FLOOR.MATH(D237*0.99),D237+10)</f>
+        <f t="shared" si="11"/>
         <v>106</v>
       </c>
       <c r="E238">
@@ -13645,15 +13780,15 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>239</v>
       </c>
       <c r="B239">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D239">
-        <f>IF(MOD(A238,10),_xlfn.FLOOR.MATH(D238*0.99),D238+10)</f>
+        <f t="shared" si="11"/>
         <v>104</v>
       </c>
       <c r="E239">
@@ -13662,15 +13797,15 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>240</v>
       </c>
       <c r="B240">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D240">
-        <f>IF(MOD(A239,10),_xlfn.FLOOR.MATH(D239*0.99),D239+10)</f>
+        <f t="shared" si="11"/>
         <v>102</v>
       </c>
       <c r="E240">
@@ -13679,15 +13814,15 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>241</v>
       </c>
       <c r="B241">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D241">
-        <f>IF(MOD(A240,10),_xlfn.FLOOR.MATH(D240*0.99),D240+10)</f>
+        <f t="shared" si="11"/>
         <v>112</v>
       </c>
       <c r="E241">
@@ -13696,15 +13831,15 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>242</v>
       </c>
       <c r="B242">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D242">
-        <f>IF(MOD(A241,10),_xlfn.FLOOR.MATH(D241*0.99),D241+10)</f>
+        <f t="shared" si="11"/>
         <v>110</v>
       </c>
       <c r="E242">
@@ -13713,15 +13848,15 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>243</v>
       </c>
       <c r="B243">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D243">
-        <f>IF(MOD(A242,10),_xlfn.FLOOR.MATH(D242*0.99),D242+10)</f>
+        <f t="shared" si="11"/>
         <v>108</v>
       </c>
       <c r="E243">
@@ -13730,15 +13865,15 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>244</v>
       </c>
       <c r="B244">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D244">
-        <f>IF(MOD(A243,10),_xlfn.FLOOR.MATH(D243*0.99),D243+10)</f>
+        <f t="shared" si="11"/>
         <v>106</v>
       </c>
       <c r="E244">
@@ -13747,15 +13882,15 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>245</v>
       </c>
       <c r="B245">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D245">
-        <f>IF(MOD(A244,10),_xlfn.FLOOR.MATH(D244*0.99),D244+10)</f>
+        <f t="shared" si="11"/>
         <v>104</v>
       </c>
       <c r="E245">
@@ -13764,15 +13899,15 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>246</v>
       </c>
       <c r="B246">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D246">
-        <f>IF(MOD(A245,10),_xlfn.FLOOR.MATH(D245*0.99),D245+10)</f>
+        <f t="shared" si="11"/>
         <v>102</v>
       </c>
       <c r="E246">
@@ -13781,15 +13916,15 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>247</v>
       </c>
       <c r="B247">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D247">
-        <f>IF(MOD(A246,10),_xlfn.FLOOR.MATH(D246*0.99),D246+10)</f>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="E247">
@@ -13798,15 +13933,15 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>248</v>
       </c>
       <c r="B248">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D248">
-        <f>IF(MOD(A247,10),_xlfn.FLOOR.MATH(D247*0.99),D247+10)</f>
+        <f t="shared" si="11"/>
         <v>99</v>
       </c>
       <c r="E248">
@@ -13815,15 +13950,15 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>249</v>
       </c>
       <c r="B249">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D249">
-        <f>IF(MOD(A248,10),_xlfn.FLOOR.MATH(D248*0.99),D248+10)</f>
+        <f t="shared" si="11"/>
         <v>98</v>
       </c>
       <c r="E249">
@@ -13832,15 +13967,15 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>250</v>
       </c>
       <c r="B250">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D250">
-        <f>IF(MOD(A249,10),_xlfn.FLOOR.MATH(D249*0.99),D249+10)</f>
+        <f t="shared" si="11"/>
         <v>97</v>
       </c>
       <c r="E250">
@@ -13849,15 +13984,15 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>251</v>
       </c>
       <c r="B251">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D251">
-        <f>IF(MOD(A250,10),_xlfn.FLOOR.MATH(D250*0.99),D250+10)</f>
+        <f t="shared" si="11"/>
         <v>107</v>
       </c>
       <c r="E251">
@@ -13866,15 +14001,15 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>252</v>
       </c>
       <c r="B252">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D252">
-        <f>IF(MOD(A251,10),_xlfn.FLOOR.MATH(D251*0.99),D251+10)</f>
+        <f t="shared" si="11"/>
         <v>105</v>
       </c>
       <c r="E252">
@@ -13883,15 +14018,15 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>253</v>
       </c>
       <c r="B253">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D253">
-        <f>IF(MOD(A252,10),_xlfn.FLOOR.MATH(D252*0.99),D252+10)</f>
+        <f t="shared" si="11"/>
         <v>103</v>
       </c>
       <c r="E253">
@@ -13900,15 +14035,15 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>254</v>
       </c>
       <c r="B254">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D254">
-        <f>IF(MOD(A253,10),_xlfn.FLOOR.MATH(D253*0.99),D253+10)</f>
+        <f t="shared" si="11"/>
         <v>101</v>
       </c>
       <c r="E254">
@@ -13917,15 +14052,15 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>255</v>
       </c>
       <c r="B255">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D255">
-        <f>IF(MOD(A254,10),_xlfn.FLOOR.MATH(D254*0.99),D254+10)</f>
+        <f t="shared" si="11"/>
         <v>99</v>
       </c>
       <c r="E255">
@@ -13934,15 +14069,15 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>256</v>
       </c>
       <c r="B256">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D256">
-        <f>IF(MOD(A255,10),_xlfn.FLOOR.MATH(D255*0.99),D255+10)</f>
+        <f t="shared" si="11"/>
         <v>98</v>
       </c>
       <c r="E256">
@@ -13951,15 +14086,15 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>257</v>
       </c>
       <c r="B257">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D257">
-        <f>IF(MOD(A256,10),_xlfn.FLOOR.MATH(D256*0.99),D256+10)</f>
+        <f t="shared" si="11"/>
         <v>97</v>
       </c>
       <c r="E257">
@@ -13968,15 +14103,15 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>258</v>
       </c>
       <c r="B258">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D258">
-        <f>IF(MOD(A257,10),_xlfn.FLOOR.MATH(D257*0.99),D257+10)</f>
+        <f t="shared" ref="D258:D321" si="14">IF(MOD(A257,10),_xlfn.FLOOR.MATH(D257*0.99),D257+10)</f>
         <v>96</v>
       </c>
       <c r="E258">
@@ -13985,15 +14120,15 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259">
-        <f t="shared" ref="A259:A322" si="10">A258 + 1</f>
+        <f t="shared" ref="A259:A322" si="15">A258 + 1</f>
         <v>259</v>
       </c>
       <c r="B259">
-        <f t="shared" ref="B259:B301" si="11">_xlfn.FLOOR.MATH(B258*0.99)</f>
+        <f t="shared" ref="B259:B301" si="16">_xlfn.FLOOR.MATH(B258*0.99)</f>
         <v>0</v>
       </c>
       <c r="D259">
-        <f>IF(MOD(A258,10),_xlfn.FLOOR.MATH(D258*0.99),D258+10)</f>
+        <f t="shared" si="14"/>
         <v>95</v>
       </c>
       <c r="E259">
@@ -14002,15 +14137,15 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>260</v>
       </c>
       <c r="B260">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D260">
-        <f>IF(MOD(A259,10),_xlfn.FLOOR.MATH(D259*0.99),D259+10)</f>
+        <f t="shared" si="14"/>
         <v>94</v>
       </c>
       <c r="E260">
@@ -14019,15 +14154,15 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>261</v>
       </c>
       <c r="B261">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D261">
-        <f>IF(MOD(A260,10),_xlfn.FLOOR.MATH(D260*0.99),D260+10)</f>
+        <f t="shared" si="14"/>
         <v>104</v>
       </c>
       <c r="E261">
@@ -14036,15 +14171,15 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>262</v>
       </c>
       <c r="B262">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D262">
-        <f>IF(MOD(A261,10),_xlfn.FLOOR.MATH(D261*0.99),D261+10)</f>
+        <f t="shared" si="14"/>
         <v>102</v>
       </c>
       <c r="E262">
@@ -14053,15 +14188,15 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>263</v>
       </c>
       <c r="B263">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D263">
-        <f>IF(MOD(A262,10),_xlfn.FLOOR.MATH(D262*0.99),D262+10)</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="E263">
@@ -14070,15 +14205,15 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>264</v>
       </c>
       <c r="B264">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D264">
-        <f>IF(MOD(A263,10),_xlfn.FLOOR.MATH(D263*0.99),D263+10)</f>
+        <f t="shared" si="14"/>
         <v>99</v>
       </c>
       <c r="E264">
@@ -14087,15 +14222,15 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>265</v>
       </c>
       <c r="B265">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D265">
-        <f>IF(MOD(A264,10),_xlfn.FLOOR.MATH(D264*0.99),D264+10)</f>
+        <f t="shared" si="14"/>
         <v>98</v>
       </c>
       <c r="E265">
@@ -14104,15 +14239,15 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>266</v>
       </c>
       <c r="B266">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D266">
-        <f>IF(MOD(A265,10),_xlfn.FLOOR.MATH(D265*0.99),D265+10)</f>
+        <f t="shared" si="14"/>
         <v>97</v>
       </c>
       <c r="E266">
@@ -14121,15 +14256,15 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>267</v>
       </c>
       <c r="B267">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D267">
-        <f>IF(MOD(A266,10),_xlfn.FLOOR.MATH(D266*0.99),D266+10)</f>
+        <f t="shared" si="14"/>
         <v>96</v>
       </c>
       <c r="E267">
@@ -14138,15 +14273,15 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>268</v>
       </c>
       <c r="B268">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D268">
-        <f>IF(MOD(A267,10),_xlfn.FLOOR.MATH(D267*0.99),D267+10)</f>
+        <f t="shared" si="14"/>
         <v>95</v>
       </c>
       <c r="E268">
@@ -14155,15 +14290,15 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>269</v>
       </c>
       <c r="B269">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D269">
-        <f>IF(MOD(A268,10),_xlfn.FLOOR.MATH(D268*0.99),D268+10)</f>
+        <f t="shared" si="14"/>
         <v>94</v>
       </c>
       <c r="E269">
@@ -14172,15 +14307,15 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>270</v>
       </c>
       <c r="B270">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D270">
-        <f>IF(MOD(A269,10),_xlfn.FLOOR.MATH(D269*0.99),D269+10)</f>
+        <f t="shared" si="14"/>
         <v>93</v>
       </c>
       <c r="E270">
@@ -14189,15 +14324,15 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>271</v>
       </c>
       <c r="B271">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D271">
-        <f>IF(MOD(A270,10),_xlfn.FLOOR.MATH(D270*0.99),D270+10)</f>
+        <f t="shared" si="14"/>
         <v>103</v>
       </c>
       <c r="E271">
@@ -14206,15 +14341,15 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>272</v>
       </c>
       <c r="B272">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D272">
-        <f>IF(MOD(A271,10),_xlfn.FLOOR.MATH(D271*0.99),D271+10)</f>
+        <f t="shared" si="14"/>
         <v>101</v>
       </c>
       <c r="E272">
@@ -14223,15 +14358,15 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>273</v>
       </c>
       <c r="B273">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D273">
-        <f>IF(MOD(A272,10),_xlfn.FLOOR.MATH(D272*0.99),D272+10)</f>
+        <f t="shared" si="14"/>
         <v>99</v>
       </c>
       <c r="E273">
@@ -14240,15 +14375,15 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>274</v>
       </c>
       <c r="B274">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D274">
-        <f>IF(MOD(A273,10),_xlfn.FLOOR.MATH(D273*0.99),D273+10)</f>
+        <f t="shared" si="14"/>
         <v>98</v>
       </c>
       <c r="E274">
@@ -14257,15 +14392,15 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>275</v>
       </c>
       <c r="B275">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D275">
-        <f>IF(MOD(A274,10),_xlfn.FLOOR.MATH(D274*0.99),D274+10)</f>
+        <f t="shared" si="14"/>
         <v>97</v>
       </c>
       <c r="E275">
@@ -14274,15 +14409,15 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>276</v>
       </c>
       <c r="B276">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D276">
-        <f>IF(MOD(A275,10),_xlfn.FLOOR.MATH(D275*0.99),D275+10)</f>
+        <f t="shared" si="14"/>
         <v>96</v>
       </c>
       <c r="E276">
@@ -14291,15 +14426,15 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>277</v>
       </c>
       <c r="B277">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D277">
-        <f>IF(MOD(A276,10),_xlfn.FLOOR.MATH(D276*0.99),D276+10)</f>
+        <f t="shared" si="14"/>
         <v>95</v>
       </c>
       <c r="E277">
@@ -14308,15 +14443,15 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>278</v>
       </c>
       <c r="B278">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D278">
-        <f>IF(MOD(A277,10),_xlfn.FLOOR.MATH(D277*0.99),D277+10)</f>
+        <f t="shared" si="14"/>
         <v>94</v>
       </c>
       <c r="E278">
@@ -14325,15 +14460,15 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>279</v>
       </c>
       <c r="B279">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D279">
-        <f>IF(MOD(A278,10),_xlfn.FLOOR.MATH(D278*0.99),D278+10)</f>
+        <f t="shared" si="14"/>
         <v>93</v>
       </c>
       <c r="E279">
@@ -14342,15 +14477,15 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>280</v>
       </c>
       <c r="B280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D280">
-        <f>IF(MOD(A279,10),_xlfn.FLOOR.MATH(D279*0.99),D279+10)</f>
+        <f t="shared" si="14"/>
         <v>92</v>
       </c>
       <c r="E280">
@@ -14359,15 +14494,15 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>281</v>
       </c>
       <c r="B281">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D281">
-        <f>IF(MOD(A280,10),_xlfn.FLOOR.MATH(D280*0.99),D280+10)</f>
+        <f t="shared" si="14"/>
         <v>102</v>
       </c>
       <c r="E281">
@@ -14376,15 +14511,15 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>282</v>
       </c>
       <c r="B282">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D282">
-        <f>IF(MOD(A281,10),_xlfn.FLOOR.MATH(D281*0.99),D281+10)</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="E282">
@@ -14393,15 +14528,15 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>283</v>
       </c>
       <c r="B283">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D283">
-        <f>IF(MOD(A282,10),_xlfn.FLOOR.MATH(D282*0.99),D282+10)</f>
+        <f t="shared" si="14"/>
         <v>99</v>
       </c>
       <c r="E283">
@@ -14410,15 +14545,15 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>284</v>
       </c>
       <c r="B284">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D284">
-        <f>IF(MOD(A283,10),_xlfn.FLOOR.MATH(D283*0.99),D283+10)</f>
+        <f t="shared" si="14"/>
         <v>98</v>
       </c>
       <c r="E284">
@@ -14427,15 +14562,15 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>285</v>
       </c>
       <c r="B285">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D285">
-        <f>IF(MOD(A284,10),_xlfn.FLOOR.MATH(D284*0.99),D284+10)</f>
+        <f t="shared" si="14"/>
         <v>97</v>
       </c>
       <c r="E285">
@@ -14444,15 +14579,15 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>286</v>
       </c>
       <c r="B286">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D286">
-        <f>IF(MOD(A285,10),_xlfn.FLOOR.MATH(D285*0.99),D285+10)</f>
+        <f t="shared" si="14"/>
         <v>96</v>
       </c>
       <c r="E286">
@@ -14461,15 +14596,15 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>287</v>
       </c>
       <c r="B287">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D287">
-        <f>IF(MOD(A286,10),_xlfn.FLOOR.MATH(D286*0.99),D286+10)</f>
+        <f t="shared" si="14"/>
         <v>95</v>
       </c>
       <c r="E287">
@@ -14478,15 +14613,15 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>288</v>
       </c>
       <c r="B288">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D288">
-        <f>IF(MOD(A287,10),_xlfn.FLOOR.MATH(D287*0.99),D287+10)</f>
+        <f t="shared" si="14"/>
         <v>94</v>
       </c>
       <c r="E288">
@@ -14495,15 +14630,15 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>289</v>
       </c>
       <c r="B289">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D289">
-        <f>IF(MOD(A288,10),_xlfn.FLOOR.MATH(D288*0.99),D288+10)</f>
+        <f t="shared" si="14"/>
         <v>93</v>
       </c>
       <c r="E289">
@@ -14512,15 +14647,15 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>290</v>
       </c>
       <c r="B290">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D290">
-        <f>IF(MOD(A289,10),_xlfn.FLOOR.MATH(D289*0.99),D289+10)</f>
+        <f t="shared" si="14"/>
         <v>92</v>
       </c>
       <c r="E290">
@@ -14529,15 +14664,15 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>291</v>
       </c>
       <c r="B291">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D291">
-        <f>IF(MOD(A290,10),_xlfn.FLOOR.MATH(D290*0.99),D290+10)</f>
+        <f t="shared" si="14"/>
         <v>102</v>
       </c>
       <c r="E291">
@@ -14546,15 +14681,15 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>292</v>
       </c>
       <c r="B292">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D292">
-        <f>IF(MOD(A291,10),_xlfn.FLOOR.MATH(D291*0.99),D291+10)</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="E292">
@@ -14563,15 +14698,15 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>293</v>
       </c>
       <c r="B293">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D293">
-        <f>IF(MOD(A292,10),_xlfn.FLOOR.MATH(D292*0.99),D292+10)</f>
+        <f t="shared" si="14"/>
         <v>99</v>
       </c>
       <c r="E293">
@@ -14580,15 +14715,15 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>294</v>
       </c>
       <c r="B294">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D294">
-        <f>IF(MOD(A293,10),_xlfn.FLOOR.MATH(D293*0.99),D293+10)</f>
+        <f t="shared" si="14"/>
         <v>98</v>
       </c>
       <c r="E294">
@@ -14597,15 +14732,15 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>295</v>
       </c>
       <c r="B295">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D295">
-        <f>IF(MOD(A294,10),_xlfn.FLOOR.MATH(D294*0.99),D294+10)</f>
+        <f t="shared" si="14"/>
         <v>97</v>
       </c>
       <c r="E295">
@@ -14614,15 +14749,15 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>296</v>
       </c>
       <c r="B296">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D296">
-        <f>IF(MOD(A295,10),_xlfn.FLOOR.MATH(D295*0.99),D295+10)</f>
+        <f t="shared" si="14"/>
         <v>96</v>
       </c>
       <c r="E296">
@@ -14631,15 +14766,15 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>297</v>
       </c>
       <c r="B297">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D297">
-        <f>IF(MOD(A296,10),_xlfn.FLOOR.MATH(D296*0.99),D296+10)</f>
+        <f t="shared" si="14"/>
         <v>95</v>
       </c>
       <c r="E297">
@@ -14648,15 +14783,15 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>298</v>
       </c>
       <c r="B298">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D298">
-        <f>IF(MOD(A297,10),_xlfn.FLOOR.MATH(D297*0.99),D297+10)</f>
+        <f t="shared" si="14"/>
         <v>94</v>
       </c>
       <c r="E298">
@@ -14665,15 +14800,15 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>299</v>
       </c>
       <c r="B299">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D299">
-        <f>IF(MOD(A298,10),_xlfn.FLOOR.MATH(D298*0.99),D298+10)</f>
+        <f t="shared" si="14"/>
         <v>93</v>
       </c>
       <c r="E299">
@@ -14682,15 +14817,15 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>300</v>
       </c>
       <c r="B300">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D300">
-        <f>IF(MOD(A299,10),_xlfn.FLOOR.MATH(D299*0.99),D299+10)</f>
+        <f t="shared" si="14"/>
         <v>92</v>
       </c>
       <c r="E300">
@@ -14699,15 +14834,15 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>301</v>
       </c>
       <c r="B301">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D301">
-        <f>IF(MOD(A300,10),_xlfn.FLOOR.MATH(D300*0.99),D300+10)</f>
+        <f t="shared" si="14"/>
         <v>102</v>
       </c>
       <c r="E301">
@@ -14716,15 +14851,15 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>302</v>
       </c>
       <c r="B302">
-        <f t="shared" ref="B302:B349" si="12">_xlfn.FLOOR.MATH(B301*0.99)</f>
+        <f t="shared" ref="B302:B349" si="17">_xlfn.FLOOR.MATH(B301*0.99)</f>
         <v>0</v>
       </c>
       <c r="D302">
-        <f>IF(MOD(A301,10),_xlfn.FLOOR.MATH(D301*0.99),D301+10)</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="E302">
@@ -14733,15 +14868,15 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>303</v>
       </c>
       <c r="B303">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D303">
-        <f>IF(MOD(A302,10),_xlfn.FLOOR.MATH(D302*0.99),D302+10)</f>
+        <f t="shared" si="14"/>
         <v>99</v>
       </c>
       <c r="E303">
@@ -14750,15 +14885,15 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>304</v>
       </c>
       <c r="B304">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D304">
-        <f>IF(MOD(A303,10),_xlfn.FLOOR.MATH(D303*0.99),D303+10)</f>
+        <f t="shared" si="14"/>
         <v>98</v>
       </c>
       <c r="E304">
@@ -14767,15 +14902,15 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>305</v>
       </c>
       <c r="B305">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D305">
-        <f>IF(MOD(A304,10),_xlfn.FLOOR.MATH(D304*0.99),D304+10)</f>
+        <f t="shared" si="14"/>
         <v>97</v>
       </c>
       <c r="E305">
@@ -14784,15 +14919,15 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>306</v>
       </c>
       <c r="B306">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D306">
-        <f>IF(MOD(A305,10),_xlfn.FLOOR.MATH(D305*0.99),D305+10)</f>
+        <f t="shared" si="14"/>
         <v>96</v>
       </c>
       <c r="E306">
@@ -14801,15 +14936,15 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>307</v>
       </c>
       <c r="B307">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D307">
-        <f>IF(MOD(A306,10),_xlfn.FLOOR.MATH(D306*0.99),D306+10)</f>
+        <f t="shared" si="14"/>
         <v>95</v>
       </c>
       <c r="E307">
@@ -14818,15 +14953,15 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>308</v>
       </c>
       <c r="B308">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D308">
-        <f>IF(MOD(A307,10),_xlfn.FLOOR.MATH(D307*0.99),D307+10)</f>
+        <f t="shared" si="14"/>
         <v>94</v>
       </c>
       <c r="E308">
@@ -14835,15 +14970,15 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>309</v>
       </c>
       <c r="B309">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D309">
-        <f>IF(MOD(A308,10),_xlfn.FLOOR.MATH(D308*0.99),D308+10)</f>
+        <f t="shared" si="14"/>
         <v>93</v>
       </c>
       <c r="E309">
@@ -14852,15 +14987,15 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>310</v>
       </c>
       <c r="B310">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D310">
-        <f>IF(MOD(A309,10),_xlfn.FLOOR.MATH(D309*0.99),D309+10)</f>
+        <f t="shared" si="14"/>
         <v>92</v>
       </c>
       <c r="E310">
@@ -14869,15 +15004,15 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>311</v>
       </c>
       <c r="B311">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D311">
-        <f>IF(MOD(A310,10),_xlfn.FLOOR.MATH(D310*0.99),D310+10)</f>
+        <f t="shared" si="14"/>
         <v>102</v>
       </c>
       <c r="E311">
@@ -14886,15 +15021,15 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>312</v>
       </c>
       <c r="B312">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D312">
-        <f>IF(MOD(A311,10),_xlfn.FLOOR.MATH(D311*0.99),D311+10)</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="E312">
@@ -14903,15 +15038,15 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>313</v>
       </c>
       <c r="B313">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D313">
-        <f>IF(MOD(A312,10),_xlfn.FLOOR.MATH(D312*0.99),D312+10)</f>
+        <f t="shared" si="14"/>
         <v>99</v>
       </c>
       <c r="E313">
@@ -14920,15 +15055,15 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>314</v>
       </c>
       <c r="B314">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D314">
-        <f>IF(MOD(A313,10),_xlfn.FLOOR.MATH(D313*0.99),D313+10)</f>
+        <f t="shared" si="14"/>
         <v>98</v>
       </c>
       <c r="E314">
@@ -14937,15 +15072,15 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>315</v>
       </c>
       <c r="B315">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D315">
-        <f>IF(MOD(A314,10),_xlfn.FLOOR.MATH(D314*0.99),D314+10)</f>
+        <f t="shared" si="14"/>
         <v>97</v>
       </c>
       <c r="E315">
@@ -14954,15 +15089,15 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>316</v>
       </c>
       <c r="B316">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D316">
-        <f>IF(MOD(A315,10),_xlfn.FLOOR.MATH(D315*0.99),D315+10)</f>
+        <f t="shared" si="14"/>
         <v>96</v>
       </c>
       <c r="E316">
@@ -14971,15 +15106,15 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>317</v>
       </c>
       <c r="B317">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D317">
-        <f>IF(MOD(A316,10),_xlfn.FLOOR.MATH(D316*0.99),D316+10)</f>
+        <f t="shared" si="14"/>
         <v>95</v>
       </c>
       <c r="E317">
@@ -14988,15 +15123,15 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>318</v>
       </c>
       <c r="B318">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D318">
-        <f>IF(MOD(A317,10),_xlfn.FLOOR.MATH(D317*0.99),D317+10)</f>
+        <f t="shared" si="14"/>
         <v>94</v>
       </c>
       <c r="E318">
@@ -15005,15 +15140,15 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>319</v>
       </c>
       <c r="B319">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D319">
-        <f>IF(MOD(A318,10),_xlfn.FLOOR.MATH(D318*0.99),D318+10)</f>
+        <f t="shared" si="14"/>
         <v>93</v>
       </c>
       <c r="E319">
@@ -15022,15 +15157,15 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>320</v>
       </c>
       <c r="B320">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D320">
-        <f>IF(MOD(A319,10),_xlfn.FLOOR.MATH(D319*0.99),D319+10)</f>
+        <f t="shared" si="14"/>
         <v>92</v>
       </c>
       <c r="E320">
@@ -15039,15 +15174,15 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>321</v>
       </c>
       <c r="B321">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D321">
-        <f>IF(MOD(A320,10),_xlfn.FLOOR.MATH(D320*0.99),D320+10)</f>
+        <f t="shared" si="14"/>
         <v>102</v>
       </c>
       <c r="E321">
@@ -15056,15 +15191,15 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>322</v>
       </c>
       <c r="B322">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D322">
-        <f>IF(MOD(A321,10),_xlfn.FLOOR.MATH(D321*0.99),D321+10)</f>
+        <f t="shared" ref="D322:D349" si="18">IF(MOD(A321,10),_xlfn.FLOOR.MATH(D321*0.99),D321+10)</f>
         <v>100</v>
       </c>
       <c r="E322">
@@ -15073,15 +15208,15 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323">
-        <f t="shared" ref="A323:A349" si="13">A322 + 1</f>
+        <f t="shared" ref="A323:A349" si="19">A322 + 1</f>
         <v>323</v>
       </c>
       <c r="B323">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D323">
-        <f>IF(MOD(A322,10),_xlfn.FLOOR.MATH(D322*0.99),D322+10)</f>
+        <f t="shared" si="18"/>
         <v>99</v>
       </c>
       <c r="E323">
@@ -15090,15 +15225,15 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>324</v>
       </c>
       <c r="B324">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D324">
-        <f>IF(MOD(A323,10),_xlfn.FLOOR.MATH(D323*0.99),D323+10)</f>
+        <f t="shared" si="18"/>
         <v>98</v>
       </c>
       <c r="E324">
@@ -15107,15 +15242,15 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>325</v>
       </c>
       <c r="B325">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D325">
-        <f>IF(MOD(A324,10),_xlfn.FLOOR.MATH(D324*0.99),D324+10)</f>
+        <f t="shared" si="18"/>
         <v>97</v>
       </c>
       <c r="E325">
@@ -15124,15 +15259,15 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>326</v>
       </c>
       <c r="B326">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D326">
-        <f>IF(MOD(A325,10),_xlfn.FLOOR.MATH(D325*0.99),D325+10)</f>
+        <f t="shared" si="18"/>
         <v>96</v>
       </c>
       <c r="E326">
@@ -15141,15 +15276,15 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>327</v>
       </c>
       <c r="B327">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D327">
-        <f>IF(MOD(A326,10),_xlfn.FLOOR.MATH(D326*0.99),D326+10)</f>
+        <f t="shared" si="18"/>
         <v>95</v>
       </c>
       <c r="E327">
@@ -15158,15 +15293,15 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>328</v>
       </c>
       <c r="B328">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D328">
-        <f>IF(MOD(A327,10),_xlfn.FLOOR.MATH(D327*0.99),D327+10)</f>
+        <f t="shared" si="18"/>
         <v>94</v>
       </c>
       <c r="E328">
@@ -15175,15 +15310,15 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>329</v>
       </c>
       <c r="B329">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D329">
-        <f>IF(MOD(A328,10),_xlfn.FLOOR.MATH(D328*0.99),D328+10)</f>
+        <f t="shared" si="18"/>
         <v>93</v>
       </c>
       <c r="E329">
@@ -15192,15 +15327,15 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>330</v>
       </c>
       <c r="B330">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D330">
-        <f>IF(MOD(A329,10),_xlfn.FLOOR.MATH(D329*0.99),D329+10)</f>
+        <f t="shared" si="18"/>
         <v>92</v>
       </c>
       <c r="E330">
@@ -15209,15 +15344,15 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>331</v>
       </c>
       <c r="B331">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D331">
-        <f>IF(MOD(A330,10),_xlfn.FLOOR.MATH(D330*0.99),D330+10)</f>
+        <f t="shared" si="18"/>
         <v>102</v>
       </c>
       <c r="E331">
@@ -15226,15 +15361,15 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>332</v>
       </c>
       <c r="B332">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D332">
-        <f>IF(MOD(A331,10),_xlfn.FLOOR.MATH(D331*0.99),D331+10)</f>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="E332">
@@ -15243,15 +15378,15 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>333</v>
       </c>
       <c r="B333">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D333">
-        <f>IF(MOD(A332,10),_xlfn.FLOOR.MATH(D332*0.99),D332+10)</f>
+        <f t="shared" si="18"/>
         <v>99</v>
       </c>
       <c r="E333">
@@ -15260,15 +15395,15 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>334</v>
       </c>
       <c r="B334">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D334">
-        <f>IF(MOD(A333,10),_xlfn.FLOOR.MATH(D333*0.99),D333+10)</f>
+        <f t="shared" si="18"/>
         <v>98</v>
       </c>
       <c r="E334">
@@ -15277,15 +15412,15 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>335</v>
       </c>
       <c r="B335">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D335">
-        <f>IF(MOD(A334,10),_xlfn.FLOOR.MATH(D334*0.99),D334+10)</f>
+        <f t="shared" si="18"/>
         <v>97</v>
       </c>
       <c r="E335">
@@ -15294,15 +15429,15 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>336</v>
       </c>
       <c r="B336">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D336">
-        <f>IF(MOD(A335,10),_xlfn.FLOOR.MATH(D335*0.99),D335+10)</f>
+        <f t="shared" si="18"/>
         <v>96</v>
       </c>
       <c r="E336">
@@ -15311,15 +15446,15 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>337</v>
       </c>
       <c r="B337">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D337">
-        <f>IF(MOD(A336,10),_xlfn.FLOOR.MATH(D336*0.99),D336+10)</f>
+        <f t="shared" si="18"/>
         <v>95</v>
       </c>
       <c r="E337">
@@ -15328,15 +15463,15 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>338</v>
       </c>
       <c r="B338">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D338">
-        <f>IF(MOD(A337,10),_xlfn.FLOOR.MATH(D337*0.99),D337+10)</f>
+        <f t="shared" si="18"/>
         <v>94</v>
       </c>
       <c r="E338">
@@ -15345,15 +15480,15 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>339</v>
       </c>
       <c r="B339">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D339">
-        <f>IF(MOD(A338,10),_xlfn.FLOOR.MATH(D338*0.99),D338+10)</f>
+        <f t="shared" si="18"/>
         <v>93</v>
       </c>
       <c r="E339">
@@ -15362,15 +15497,15 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>340</v>
       </c>
       <c r="B340">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D340">
-        <f>IF(MOD(A339,10),_xlfn.FLOOR.MATH(D339*0.99),D339+10)</f>
+        <f t="shared" si="18"/>
         <v>92</v>
       </c>
       <c r="E340">
@@ -15379,15 +15514,15 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>341</v>
       </c>
       <c r="B341">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D341">
-        <f>IF(MOD(A340,10),_xlfn.FLOOR.MATH(D340*0.99),D340+10)</f>
+        <f t="shared" si="18"/>
         <v>102</v>
       </c>
       <c r="E341">
@@ -15396,15 +15531,15 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>342</v>
       </c>
       <c r="B342">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D342">
-        <f>IF(MOD(A341,10),_xlfn.FLOOR.MATH(D341*0.99),D341+10)</f>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="E342">
@@ -15413,15 +15548,15 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>343</v>
       </c>
       <c r="B343">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D343">
-        <f>IF(MOD(A342,10),_xlfn.FLOOR.MATH(D342*0.99),D342+10)</f>
+        <f t="shared" si="18"/>
         <v>99</v>
       </c>
       <c r="E343">
@@ -15430,15 +15565,15 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>344</v>
       </c>
       <c r="B344">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D344">
-        <f>IF(MOD(A343,10),_xlfn.FLOOR.MATH(D343*0.99),D343+10)</f>
+        <f t="shared" si="18"/>
         <v>98</v>
       </c>
       <c r="E344">
@@ -15447,15 +15582,15 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>345</v>
       </c>
       <c r="B345">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D345">
-        <f>IF(MOD(A344,10),_xlfn.FLOOR.MATH(D344*0.99),D344+10)</f>
+        <f t="shared" si="18"/>
         <v>97</v>
       </c>
       <c r="E345">
@@ -15464,15 +15599,15 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>346</v>
       </c>
       <c r="B346">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D346">
-        <f>IF(MOD(A345,10),_xlfn.FLOOR.MATH(D345*0.99),D345+10)</f>
+        <f t="shared" si="18"/>
         <v>96</v>
       </c>
       <c r="E346">
@@ -15481,15 +15616,15 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>347</v>
       </c>
       <c r="B347">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D347">
-        <f>IF(MOD(A346,10),_xlfn.FLOOR.MATH(D346*0.99),D346+10)</f>
+        <f t="shared" si="18"/>
         <v>95</v>
       </c>
       <c r="E347">
@@ -15498,15 +15633,15 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>348</v>
       </c>
       <c r="B348">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D348">
-        <f>IF(MOD(A347,10),_xlfn.FLOOR.MATH(D347*0.99),D347+10)</f>
+        <f t="shared" si="18"/>
         <v>94</v>
       </c>
       <c r="E348">
@@ -15515,15 +15650,15 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>349</v>
       </c>
       <c r="B349">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D349">
-        <f>IF(MOD(A348,10),_xlfn.FLOOR.MATH(D348*0.99),D348+10)</f>
+        <f t="shared" si="18"/>
         <v>93</v>
       </c>
       <c r="E349">
